--- a/dataset/lg/daasarathi.xlsx
+++ b/dataset/lg/daasarathi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీరఘురామ చారుతులసీదళదామ శమక్షమాది శృం
 గారగుణాభిరామ త్రిజగన్నుతశౌర్యరమాలలామ దు
@@ -477,32 +474,29 @@
 త్తారకనామ భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('చా', 'U'), ('రు', '|'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళ', '|'), ('దా', 'U'), ('మ', '|'), ('శ', '|'), ('మ', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ది', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('గు', '|'), ('ణా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('న్ను', '|'), ('త', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('ర', '|'), ('మా', 'U'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('క', '|'), ('బం', 'U'), ('ధ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('జ', '|'), ('గ', 'U'), ('జ్జ', '|'), ('న', '|'), ('క', 'U'), ('ల్మ', '|'), ('షా', 'U'), ('ర్ణ', '|'), ('వో', 'U'), ('త్తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>రామ విశాలవిక్రమ పరాజిత భార్గవరామ సద్గుణ
 స్తోమ పరాంగనావిముఖ సువ్రతకామ వినీల నీరద
@@ -510,32 +504,29 @@
 ద్దామవిరామ భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('మ', '|'), ('వి', '|'), ('శా', 'U'), ('ల', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('ప', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('మ', '|'), ('ప', '|'), ('రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('వి', '|'), ('ము', '|'), ('ఖ', '|'), ('సు', 'U'), ('వ్ర', '|'), ('త', '|'), ('కా', 'U'), ('మ', '|'), ('వి', '|'), ('నీ', 'U'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('క', '|'), ('కు', 'U'), ('త్స్థ', '|'), ('వం', 'U'), ('శ', '|'), ('క', '|'), ('ల', '|'), ('శాం', 'U'), ('బు', '|'), ('ధి', '|'), ('సో', 'U'), ('మ', '|'), ('సు', '|'), ('రా', 'U'), ('రి', '|'), ('దో', 'U'), ('ర్బ', '|'), ('లో', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అగణితసత్యభాష శరణాగతపోష దయాలసజ్ఝరీ
 విగతసమస్తదోష పృథివీసురతోష త్రిలోకపూతకృ
@@ -543,32 +534,29 @@
 ద్ధగితవిభూష భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('ష', '|'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('త', '|'), ('పో', 'U'), ('ష', '|'), ('ద', '|'), ('యా', 'U'), ('ల', '|'), ('స', 'U'), ('జ్ఝ', '|'), ('రీ', 'U'), ('వి', '|'), ('గ', '|'), ('త', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('దో', 'U'), ('ష', '|'), ('పృ', '|'), ('థి', '|'), ('వీ', 'U'), ('సు', '|'), ('ర', '|'), ('తో', 'U'), ('ష', 'U'), ('త్రి', '|'), ('లో', 'U'), ('క', '|'), ('పూ', 'U'), ('త', '|'), ('కృ', 'U'), ('ద్గ', '|'), ('గ', '|'), ('న', '|'), ('ధు', '|'), ('నీ', 'U'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('ధ', '|'), ('గ', 'U'), ('ద్ధ', '|'), ('గి', '|'), ('త', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>రంగదరాతిభంగ ఖగరాజతురంగ విపత్పరంపరో
 త్తుంగ తమఃపతంగ పరితోషితరంగ దయాంతరంగ స
@@ -576,32 +564,29 @@
 తంగ శుభాంగ భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('రం', 'U'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('తి', '|'), ('భం', 'U'), ('గ', '|'), ('ఖ', '|'), ('గ', '|'), ('రా', 'U'), ('జ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('వి', '|'), ('ప', 'U'), ('త్ప', '|'), ('రం', 'U'), ('ప', '|'), ('రో', 'U'), ('త్తుం', 'U'), ('గ', '|'), ('త', '|'), ('మః', 'U'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('ప', '|'), ('రి', '|'), ('తో', 'U'), ('షి', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('ద', '|'), ('యాం', 'U'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('స', 'U'), ('త్సం', 'U'), ('గ', '|'), ('ధ', '|'), ('రా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('భృం', 'U'), ('గ', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('రా', 'U'), ('బ్జ', '|'), ('మా', 'U'), ('తం', 'U'), ('గ', '|'), ('శు', '|'), ('భాం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>శ్రీద సనందనాది మునిసేవితపాద దిగంతకీర్తిసం
 పాద సమస్తభూతపరిపాలవినోద విషాదవల్లికా
@@ -609,32 +594,29 @@
 తాది వినోద భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ద', '|'), ('స', '|'), ('నం', 'U'), ('ద', '|'), ('నా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', '|'), ('సే', 'U'), ('వి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('ది', '|'), ('గం', 'U'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('సం', 'U'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భూ', 'U'), ('త', '|'), ('ప', '|'), ('రి', '|'), ('పా', 'U'), ('ల', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('వి', '|'), ('షా', 'U'), ('ద', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('చ్ఛే', 'U'), ('ద', '|'), ('ధ', '|'), ('రా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థ', '|'), ('కు', '|'), ('ల', '|'), ('సిం', 'U'), ('ధు', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('పా', 'U'), ('ద', '|'), ('నృ', 'U'), ('త్త', '|'), ('గీ', 'U'), ('తా', 'U'), ('ది', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>ఆర్యులకెల్ల మ్రొక్కి వినతాంగుఁడనై రఘునాథభట్టరా
 చార్యుల కంజలెత్తి కవిసత్తములన్‌ వినుతించి కార్యసౌ
@@ -642,32 +624,29 @@
 త్పర్యమునన్‌ గ్రహింపుమిది దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వి', '|'), ('న', '|'), ('తాం', 'U'), ('గు', '|'), ('డ', '|'), ('నై', 'U'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థ', '|'), ('భ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కం', 'U'), ('జ', '|'), ('లె', 'U'), ('త్తి', '|'), ('క', '|'), ('వి', '|'), ('స', 'U'), ('త్త', '|'), ('ము', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('కా', 'U'), ('ర్య', '|'), ('సౌ', 'U'), ('క', 'U'), ('ర్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('ర', '|'), ('చిం', 'U'), ('తు', '|'), ('నే', 'U'), ('డు', '|'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('నన్', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('పు', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>మసకొని రేఁగుబండ్లకును మౌక్తికముల్‌ వెలబోసినట్లు దు
 ర్వ్యసనముజెంది కావ్యము దురాత్ములకిచ్చితి మోసమయ్యె నా
@@ -676,32 +655,29 @@
 తసమును జెంది భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('స', '|'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('గు', '|'), ('బం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('ను', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('బో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('స', '|'), ('న', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('మో', 'U'), ('స', '|'), ('మ', 'U'), ('య్యె', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('న', '|'), ('కు', '|'), ('బూ', 'U'), ('త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('సు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వా', 'U'), ('క్సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖ', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>శ్రీరమణీయహార యతసీకుసుమాభశరీర భక్తమం
 దార వికారదూర పరతత్త్వవిహార త్రిలోకచేతనో
@@ -709,32 +685,29 @@
 తార కుఠార భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('హా', 'U'), ('ర', '|'), ('య', '|'), ('త', '|'), ('సీ', 'U'), ('కు', '|'), ('సు', '|'), ('మా', 'U'), ('భ', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('దూ', 'U'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', 'U'), ('త్రి', '|'), ('లో', 'U'), ('క', '|'), ('చే', 'U'), ('త', '|'), ('నో', 'U'), ('ద్ధా', 'U'), ('ర', '|'), ('దు', '|'), ('రం', 'U'), ('త', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('ఖ', '|'), ('రా', 'U'), ('ది', '|'), ('దై', 'U'), ('త్య', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>దురితలతాలవిత్ర ఖరదూషణకాననవీతిహోత్ర భూ
 భరణకళావిచిత్ర భవబంధవిమోచనసూత్ర చారువి
@@ -742,32 +715,29 @@
 ధరసమగాత్ర భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('తా', 'U'), ('ల', '|'), ('వి', 'U'), ('త్ర', '|'), ('ఖ', '|'), ('ర', '|'), ('దూ', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('వీ', 'U'), ('తి', '|'), ('హో', 'U'), ('త్ర', '|'), ('భూ', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('భ', '|'), ('వ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('మో', 'U'), ('చ', '|'), ('న', '|'), ('సూ', 'U'), ('త్ర', '|'), ('చా', 'U'), ('రు', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('నే', 'U'), ('త్ర', '|'), ('ఘ', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('వి', '|'), ('నీ', 'U'), ('ల', '|'), ('భూ', 'U'), ('రి', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('స', '|'), ('మ', '|'), ('గా', 'U'), ('త్ర', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>కనకవిశాలచేల భవకాననశాతకుఠారధార స
 జ్జనపరిపాలశీల దివిజస్తుతసద్గుణకాండ కాండసం
@@ -775,32 +745,29 @@
 దనఘనసార సారయశ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('క', '|'), ('వి', '|'), ('శా', 'U'), ('ల', '|'), ('చే', 'U'), ('ల', '|'), ('భ', '|'), ('వ', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('శా', 'U'), ('త', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('పా', 'U'), ('ల', '|'), ('శీ', 'U'), ('ల', '|'), ('ది', '|'), ('వి', '|'), ('జ', 'U'), ('స్తు', '|'), ('త', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('కాం', 'U'), ('డ', '|'), ('కాం', 'U'), ('డ', '|'), ('సం', 'U'), ('జ', '|'), ('ని', '|'), ('త', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', 'U'), ('క్ర', '|'), ('మ', '|'), ('వి', '|'), ('శా', 'U'), ('ర', '|'), ('ద', '|'), ('శా', 'U'), ('ర', '|'), ('ద', '|'), ('కం', 'U'), ('ద', '|'), ('కుం', 'U'), ('ద', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('ర', '|'), ('య', '|'), ('శ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>శ్రీరఘువంశ తోయధికి శీతమయూఖుఁడవైన నీ పవి
 త్రోరుపదాబ్జముల్‌ వికసితోత్పల చంపకవృత్తమాధురీ
@@ -808,32 +775,29 @@
 తారకనామ భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ర', '|'), ('ఘు', '|'), ('వం', 'U'), ('శ', '|'), ('తో', 'U'), ('య', '|'), ('ధి', '|'), ('కి', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నీ', 'U'), ('ప', '|'), ('వి', 'U'), ('త్రో', 'U'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ముల్', 'U'), ('వి', '|'), ('క', '|'), ('సి', '|'), ('తో', 'U'), ('త్ప', '|'), ('ల', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('వృ', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('వా', 'U'), ('క్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('జి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>గురుతరమైన కావ్యరస గుంభనకబ్బురమంది ముష్కరుల్‌
 సరసులమాడ్కి సంతసిల జాలుదురోటు శశాంకచంద్రికాం
@@ -841,32 +805,29 @@
 ధరమున జాఱునే శిలలు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('స', '|'), ('గుం', 'U'), ('భ', '|'), ('న', '|'), ('క', 'U'), ('బ్బు', '|'), ('ర', '|'), ('మం', 'U'), ('ది', '|'), ('ము', 'U'), ('ష్క', '|'), ('రుల్', 'U'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('ల', '|'), ('మా', 'U'), ('డ్కి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('ల', '|'), ('జా', 'U'), ('లు', '|'), ('దు', '|'), ('రో', 'U'), ('టు', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కిం', 'U'), ('దు', '|'), ('కాం', 'U'), ('త', '|'), ('మ', '|'), ('ణి', '|'), ('కో', 'U'), ('టి', 'U'), ('స్ర', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('విం', 'U'), ('ధ్య', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జా', 'U'), ('ఱు', '|'), ('నే', 'U'), ('శి', '|'), ('ల', '|'), ('లు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>తరణికులేశ నానుడులఁ దప్పులు గల్గిన నీదునామ స
 ద్విరచితమైన కావ్యము పవిత్రముగాదె వియన్నదీజలం
@@ -874,32 +835,29 @@
 దరమె గణింపనెవ్వరికి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ణి', '|'), ('కు', '|'), ('లే', 'U'), ('శ', '|'), ('నా', 'U'), ('ను', '|'), ('డు', '|'), ('ల', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('స', 'U'), ('ద్వి', '|'), ('ర', '|'), ('చి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('వి', '|'), ('య', 'U'), ('న్న', '|'), ('దీ', 'U'), ('జ', '|'), ('లం', 'U'), ('బ', '|'), ('రు', '|'), ('గు', '|'), ('చు', '|'), ('వం', 'U'), ('క', '|'), ('యై', 'U'), ('న', '|'), ('మ', '|'), ('లి', '|'), ('నా', 'U'), ('కృ', '|'), ('తి', '|'), ('బా', 'U'), ('ఱి', '|'), ('న', '|'), ('ద', 'U'), ('న్మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ముం', 'U'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>దారుణపాతకాబ్ధికి సదాబడబాగ్ని భవాకులార్తి వి
 స్తార దవానలార్చికి సుధారసవృష్టి దురంతదుర్మతా
@@ -907,32 +865,29 @@
 తారకనామ మెన్నుకొన దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('పా', 'U'), ('త', '|'), ('కా', 'U'), ('బ్ధి', '|'), ('కి', '|'), ('స', '|'), ('దా', 'U'), ('బ', '|'), ('డ', '|'), ('బా', 'U'), ('గ్ని', '|'), ('భ', '|'), ('వా', 'U'), ('కు', '|'), ('లా', 'U'), ('ర్తి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('ద', '|'), ('వా', 'U'), ('న', '|'), ('లా', 'U'), ('ర్చి', '|'), ('కి', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('దు', '|'), ('రం', 'U'), ('త', '|'), ('దు', '|'), ('ర్మ', '|'), ('తా', 'U'), ('చా', 'U'), ('ర', '|'), ('భ', '|'), ('యం', 'U'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('వి', '|'), ('కి', '|'), ('జం', 'U'), ('డ', '|'), ('క', '|'), ('ఠో', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('నీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('మె', 'U'), ('న్ను', '|'), ('కొ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>హరునకు నవ్విభీషణున కద్రిజకుం దిరుమంత్రరాజమై
 కరికి నహల్యకున్‌ ద్రుపదకన్యకు నార్తిహరించు చుట్టమై
@@ -940,32 +895,29 @@
 తరము నటింపజేయుమిఁక దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('క', '|'), ('ద్రి', '|'), ('జ', '|'), ('కుం', 'U'), ('ది', '|'), ('రు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మై', 'U'), ('క', '|'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('హ', 'U'), ('ల్య', '|'), ('కున్', 'U'), ('ద్రు', '|'), ('ప', '|'), ('ద', '|'), ('క', 'U'), ('న్య', '|'), ('కు', '|'), ('నా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('జి', 'U'), ('హ్వ', '|'), ('పై', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ముప్పునఁ గాలకింకరులు ముంగిటవచ్చినవేళ రోగముల్‌
 గొప్పరమైనచోఁ గఫము కుత్తుక నిండినవేళ బాంధవుల్‌
@@ -973,32 +925,29 @@
 తప్పక చేతు మీభజన దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('ప్పు', '|'), ('న', '|'), ('గా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('రు', '|'), ('లు', '|'), ('ముం', 'U'), ('గి', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('గ', '|'), ('ఫ', '|'), ('ము', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుల్', 'U'), ('గ', 'U'), ('ప్పి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నొ', '|'), ('గ', 'U'), ('ల్గ', '|'), ('దొ', '|'), ('నా', 'U'), ('టి', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('త', 'U'), ('ప్ప', '|'), ('క', '|'), ('చే', 'U'), ('తు', '|'), ('మీ', 'U'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>"పరమదయానిధే పతిత పావననామ హరే"యటంచు సు
 స్థిరమతులై సదా భజన సేయు మహాత్ముల పాదధూళి నా
@@ -1006,32 +955,29 @@
 త్కరముల కాన బెట్టునఁట దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('ధే', 'U'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('హ', '|'), ('రే', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('స', '|'), ('దా', 'U'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ధూ', 'U'), ('ళి', '|'), ('నా', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('ల్తు', '|'), ('మీ', 'U'), ('ర', '|'), ('ట', '|'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('య', '|'), ('ముం', 'U'), ('డు', '|'), ('కిం', 'U'), ('క', '|'), ('రో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('న', '|'), ('బె', 'U'), ('ట్టు', '|'), ('న', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>అజునకుదండ్రివయ్యు సనకాదులకుం బరతత్త్వమయ్యు స
 ద్ద్విజమునికోటికెల్లఁ గులదేవతవయ్యు దినేశవంశ భూ
@@ -1039,32 +985,29 @@
 డ్ధ్వజ మిముఁ బ్రస్తుతించెదను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వ', 'U'), ('య్యు', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('దు', '|'), ('ల', '|'), ('కుం', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మ', 'U'), ('య్యు', '|'), ('స', 'U'), ('ద్ద్వి', '|'), ('జ', '|'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('టి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గు', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('వ', 'U'), ('య్యు', '|'), ('ది', '|'), ('నే', 'U'), ('శ', '|'), ('వం', 'U'), ('శ', '|'), ('భూ', 'U'), ('భు', '|'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('మే', 'U'), ('టి', '|'), ('వ', 'U'), ('య్యు', '|'), ('బ', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డ', '|'), ('వై', 'U'), ('వె', '|'), ('లు', '|'), ('గొం', 'U'), ('దు', '|'), ('ప', 'U'), ('క్షి', '|'), ('రా', 'U'), ('డ్ధ్వ', '|'), ('జ', '|'), ('మి', '|'), ('ము', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>"పండిత రక్షకుం డఖిల పాపవిమోచనుఁ డబ్జసంభవా
 ఖండలపూజితుండు దశ కంఠవిలుంఠన చండకాండ కో
@@ -1072,32 +1015,29 @@
 దండలుగాఁగ నా కవిత దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('డి', '|'), ('త', '|'), ('ర', 'U'), ('క్ష', '|'), ('కుం', 'U'), ('డ', '|'), ('ఖి', '|'), ('ల', '|'), ('పా', 'U'), ('ప', '|'), ('వి', '|'), ('మో', 'U'), ('చ', '|'), ('ను', '|'), ('డ', 'U'), ('బ్జ', '|'), ('సం', 'U'), ('భ', '|'), ('వా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('ల', '|'), ('పూ', 'U'), ('జి', '|'), ('తుం', 'U'), ('డు', '|'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('వి', '|'), ('లుం', 'U'), ('ఠ', '|'), ('న', '|'), ('చం', 'U'), ('డ', '|'), ('కాం', 'U'), ('డ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('క', '|'), ('ళా', 'U'), ('ప్ర', '|'), ('వీ', 'U'), ('ణు', '|'), ('డ', '|'), ('ను', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కి', 'U'), ('త్తు', '|'), ('బూ', 'U'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('క', '|'), ('వి', '|'), ('త', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>శ్రీరమ సీతగాఁగ నిజసేవకబృందము వీరవైష్ణవా
 చారజనంబుగాఁగ విరజానది గౌతమిగా వికుంఠము
@@ -1105,32 +1045,29 @@
 ద్ధారకుఁడైన విష్ణుఁడవు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ర', '|'), ('మ', '|'), ('సీ', 'U'), ('త', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('జ', '|'), ('సే', 'U'), ('వ', '|'), ('క', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('వీ', 'U'), ('ర', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వా', 'U'), ('చా', 'U'), ('ర', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('వి', '|'), ('ర', '|'), ('జా', 'U'), ('న', '|'), ('ది', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('గా', 'U'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('ము', 'U'), ('న్నా', 'U'), ('ర', '|'), ('య', '|'), ('భ', '|'), ('ద్ర', '|'), ('శై', 'U'), ('ల', '|'), ('శి', '|'), ('ఖ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('చే', 'U'), ('త', '|'), ('నో', 'U'), ('ద్ధా', 'U'), ('ర', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>కంటి నదీతటంబుఁ బొడఁగంటిని భద్రనగాదివాసముం
 గంటి నిలాతనూజ నురు కార్ముకమార్గణ శంఖచక్రముల్‌
@@ -1138,32 +1075,29 @@
 త్కంటక దైత్యనిర్దళన దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('టి', '|'), ('న', '|'), ('దీ', 'U'), ('త', '|'), ('టం', 'U'), ('బు', '|'), ('బొ', '|'), ('డ', '|'), ('గం', 'U'), ('టి', '|'), ('ని', '|'), ('భ', '|'), ('ద్ర', '|'), ('న', '|'), ('గా', 'U'), ('ది', '|'), ('వా', 'U'), ('స', '|'), ('ముం', 'U'), ('గం', 'U'), ('టి', '|'), ('ని', '|'), ('లా', 'U'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('ను', '|'), ('రు', '|'), ('కా', 'U'), ('ర్ము', '|'), ('క', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ణ', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ముల్', 'U'), ('గం', 'U'), ('టి', '|'), ('ని', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ని', '|'), ('గం', 'U'), ('టి', '|'), ('కృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('డ', '|'), ('నై', 'U'), ('తి', '|'), ('నో', 'U'), ('జ', '|'), ('గ', 'U'), ('త్కం', 'U'), ('ట', '|'), ('క', '|'), ('దై', 'U'), ('త్య', '|'), ('ని', '|'), ('ర్ద', '|'), ('ళ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>హలికునకున్‌ హలాగ్రమున నర్థము చేకురుభంగి దప్పిచే
 నలమటఁజెందువానికి సురాపగలో జలమబ్బినట్లు దు
@@ -1171,32 +1105,29 @@
 దలపు ఘటింపఁజేసితివి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('లి', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('హ', '|'), ('లా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('చే', 'U'), ('కు', '|'), ('రు', '|'), ('భం', 'U'), ('గి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('న', '|'), ('ల', '|'), ('మ', '|'), ('ట', '|'), ('జెం', 'U'), ('దు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('సు', '|'), ('రా', 'U'), ('ప', '|'), ('గ', '|'), ('లో', 'U'), ('జ', '|'), ('ల', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', '|'), ('ర్మ', '|'), ('లి', '|'), ('న', '|'), ('మ', '|'), ('నో', 'U'), ('వి', '|'), ('కా', 'U'), ('రి', '|'), ('న', '|'), ('గు', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ని', '|'), ('న', 'U'), ('న్నొ', '|'), ('డ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('ప', '|'), ('యిం', 'U'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>కొంజక తర్కవాదమను గుద్దలిచేఁ బరతత్త్వభూస్థలిన్‌
 రంజిలఁద్రవ్వి కన్గొనని రామనిధానము నేఁడు భక్తి సి
@@ -1204,32 +1135,29 @@
 త్కంజమునన్‌ వసింపుమిఁక దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('జ', '|'), ('క', '|'), ('త', 'U'), ('ర్క', '|'), ('వా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('గు', 'U'), ('ద్ద', '|'), ('లి', '|'), ('చే', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('క', 'U'), ('న్గొ', '|'), ('న', '|'), ('ని', '|'), ('రా', 'U'), ('మ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('నే', 'U'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('సి', 'U'), ('ద్ధాం', 'U'), ('జ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('హ', 'U'), ('స్త', '|'), ('గ', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('భ', '|'), ('ళీ', 'U'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('నన్', 'U'), ('వ', '|'), ('సిం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>రాముఁడు ఘోరపాతకవిరాముఁడు సద్గుణకల్పవల్లికా
 రాముఁడు షడ్వికారజయరాముఁడు సాధుజనావనవ్రతో
@@ -1237,32 +1165,29 @@
 దామరలే భజించెదరు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('ము', '|'), ('డు', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('క', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('ష', 'U'), ('డ్వి', '|'), ('కా', 'U'), ('ర', '|'), ('జ', '|'), ('య', '|'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('న', 'U'), ('వ్ర', '|'), ('తో', 'U'), ('ద్దా', 'U'), ('ము', '|'), ('డు', '|'), ('రా', 'U'), ('ము', '|'), ('డే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('మా', 'U'), ('క', '|'), ('ని', '|'), ('మీ', 'U'), ('య', '|'), ('డుం', 'U'), ('గు', '|'), ('గెం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('లే', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>చక్కరమాని వేము దినఁజాలిన కైవడి మానవాధముల్‌
 పెక్కురు బక్కదైవముల వేమఱుగొల్చెద రట్లకాదయా
@@ -1270,32 +1195,29 @@
 దక్కినమాట లేమిటికి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్క', '|'), ('ర', '|'), ('మా', 'U'), ('ని', '|'), ('వే', 'U'), ('ము', '|'), ('ది', '|'), ('న', '|'), ('జా', 'U'), ('లి', '|'), ('న', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('మా', 'U'), ('న', '|'), ('వా', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('పె', 'U'), ('క్కు', '|'), ('రు', '|'), ('బ', 'U'), ('క్క', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('వే', 'U'), ('మ', '|'), ('ఱు', '|'), ('గొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ర', 'U'), ('ట్ల', '|'), ('కా', 'U'), ('ద', '|'), ('యా', 'U'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('వ', '|'), ('లె', '|'), ('మో', 'U'), ('క్ష', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', '|'), ('నీ', 'U'), ('వ', '|'), ('యీ', 'U'), ('వ', '|'), ('లెన్', 'U'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>రాకలుషంబులెల్ల బయలం బడద్రోచిన మా కవాటమై
 దీకొనిఁ బ్రోచు నిక్కమని ధీయుతులెన్నఁ దదీయవర్ణముల్‌
@@ -1303,32 +1225,29 @@
 దాకొనుచే జగజ్జనుల దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బ', '|'), ('య', '|'), ('లం', 'U'), ('బ', '|'), ('డ', '|'), ('ద్రో', 'U'), ('చి', '|'), ('న', '|'), ('మా', 'U'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('మై', 'U'), ('దీ', 'U'), ('కొ', '|'), ('ని', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('ని', '|'), ('ధీ', 'U'), ('యు', '|'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ముల్', 'U'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('ప', 'U'), ('త్ప', '|'), ('రం', 'U'), ('ప', '|'), ('రల్', 'U'), ('దా', 'U'), ('కొ', '|'), ('ను', '|'), ('చే', 'U'), ('జ', '|'), ('గ', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>"రామహరే కకుత్స్థకుల రామహరే రఘురామరామ శ్రీ
 రామహరే" యటంచు మది రంజిల భేకగళంబులీల నీ
@@ -1336,32 +1255,29 @@
 ధామనివాసులౌదుఁరట దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రే', 'U'), ('క', '|'), ('కు', 'U'), ('త్స్థ', '|'), ('కు', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రే', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రే', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('భే', 'U'), ('క', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('లీ', 'U'), ('ల', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('భ', '|'), ('వం', 'U'), ('బె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('త', 'U'), ('త్ప', '|'), ('రం', 'U'), ('ధా', 'U'), ('మ', '|'), ('ని', '|'), ('వా', 'U'), ('సు', '|'), ('లౌ', 'U'), ('దు', '|'), ('ర', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>చక్కెర లప్పకున్‌ మిగుల జవ్వని కెంజిగురాకు మోవికిం
 జొక్కపుజుంటి తేనియకుఁ జొక్కులుచుం గనలేరుగాక నేఁ
@@ -1369,32 +1285,29 @@
 తక్కినమాధురీ మహిమ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('ల', 'U'), ('ప్ప', '|'), ('కున్', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('కెం', 'U'), ('జి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('మో', 'U'), ('వి', '|'), ('కిం', 'U'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జుం', 'U'), ('టి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('చుం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('నే', 'U'), ('డ', 'U'), ('క్క', '|'), ('ట', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మా', 'U'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>అండజవాహ నిన్ను హృదయంబున నమ్మినవారి పాపముల్‌
 కొండలవంటివైన వెసఁ గూలి నశింపకయున్నె సంతతా
@@ -1402,32 +1315,29 @@
 దండయొసంగకున్నె తుద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('డ', '|'), ('జ', '|'), ('వా', 'U'), ('హ', '|'), ('ని', 'U'), ('న్ను', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('పా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('కొం', 'U'), ('డ', '|'), ('ల', '|'), ('వం', 'U'), ('టి', '|'), ('వై', 'U'), ('న', '|'), ('వె', '|'), ('స', '|'), ('గూ', 'U'), ('లి', '|'), ('న', '|'), ('శిం', 'U'), ('ప', '|'), ('క', '|'), ('యు', 'U'), ('న్నె', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('ల', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('నె', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('కై', 'U'), ('దం', 'U'), ('డ', '|'), ('యొ', '|'), ('సం', 'U'), ('గ', '|'), ('కు', 'U'), ('న్నె', '|'), ('తు', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>చిక్కని పాలపై మిసిమిఁ జెందిన మీఁగడ పంచదారతో
 మెక్కినభంగి మీ విమల మేచకరూప సుధారసంబు నా
@@ -1435,32 +1345,29 @@
 దక్కెనటంచు జుఱ్ఱెదను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('క్క', '|'), ('ని', '|'), ('పా', 'U'), ('ల', '|'), ('పై', 'U'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('మీ', 'U'), ('గ', '|'), ('డ', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('తో', 'U'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('మీ', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('మే', 'U'), ('చ', '|'), ('క', '|'), ('రూ', 'U'), ('ప', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నా', 'U'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ప', 'U'), ('ళ్ళె', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('హి', '|'), ('త', '|'), ('దా', 'U'), ('స్య', '|'), ('మ', '|'), ('నే', 'U'), ('టి', '|'), ('దో', 'U'), ('యి', '|'), ('టన్', 'U'), ('ద', 'U'), ('క్కె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>సిరులిడ సీత పీడలెగజిమ్ముటకున్‌ హనుమంతుఁ డార్తి సో
 దరుఁడు సుమిత్రసూతి దురితంబులు మానుప రామనామమున్‌
@@ -1468,32 +1375,29 @@
 త్కరముగదా భవన్మహిమ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రు', '|'), ('లి', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('పీ', 'U'), ('డ', '|'), ('లె', '|'), ('గ', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ట', '|'), ('కున్', 'U'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ర్తి', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('డు', '|'), ('సు', '|'), ('మి', 'U'), ('త్ర', '|'), ('సూ', 'U'), ('తి', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ను', '|'), ('ప', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('ద', '|'), ('రి', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('న్ని', '|'), ('న', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('రో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('దా', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>హలి కులిశాంకుశ ధ్వజ శరాసన శంఖ రథాంగ కల్పకో
 జ్జ్వల జలజాత రేఖలను సాంకములై కనుపట్టుచున్న మీ
@@ -1501,32 +1405,29 @@
 తలవునఁజేర్చి కావగఁదె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('లి', '|'), ('కు', '|'), ('లి', '|'), ('శాం', 'U'), ('కు', '|'), ('శ', 'U'), ('ధ్వ', '|'), ('జ', '|'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('శం', 'U'), ('ఖ', '|'), ('ర', '|'), ('థాం', 'U'), ('గ', '|'), ('క', 'U'), ('ల్ప', '|'), ('కో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('రే', 'U'), ('ఖ', '|'), ('ల', '|'), ('ను', '|'), ('సాం', 'U'), ('క', '|'), ('ము', '|'), ('లై', 'U'), ('క', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('న్న', '|'), ('మీ', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('గౌ', 'U'), ('త', '|'), ('మ', '|'), ('ప', 'U'), ('త్ని', '|'), ('కొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('వు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('కా', 'U'), ('వ', '|'), ('గ', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>జలనిధిలోనదూఱి కులశైలముమీటి ధరిత్రిగొమ్మునం
 దలవడమాటి రక్కసుని యంగము గీటి బలీంద్రునిన్‌ రసా
@@ -1534,32 +1435,29 @@
 తలఁపుననాటి రాఁగదవె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('దూ', 'U'), ('ఱి', '|'), ('కు', '|'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('ము', '|'), ('మీ', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('గొ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('మా', 'U'), ('టి', '|'), ('ర', 'U'), ('క్క', '|'), ('సు', '|'), ('ని', '|'), ('యం', 'U'), ('గ', '|'), ('ము', '|'), ('గీ', 'U'), ('టి', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('మా', 'U'), ('టి', '|'), ('పా', 'U'), ('ర్థి', '|'), ('వ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('వె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>భండనభీముఁ డార్తజనబాంధవుఁ డుజ్జ్వలబాణతూణ కో
 దండకలాప్రచండ భుజతాండవకీర్తికి రామమూర్తికిన్‌
@@ -1568,32 +1466,29 @@
 దండము నెక్కిచాటెదను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('భం', 'U'), ('డ', '|'), ('న', '|'), ('భీ', 'U'), ('ము', '|'), ('డా', 'U'), ('ర్త', '|'), ('జ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('డు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('బా', 'U'), ('ణ', '|'), ('తూ', 'U'), ('ణ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('క', '|'), ('లా', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('భు', '|'), ('జ', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కిన్', 'U'), ('రెం', 'U'), ('డ', '|'), ('వ', '|'), ('సా', 'U'), ('టి', '|'), ('దై', 'U'), ('వ', '|'), ('మి', '|'), ('క', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('గ', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('భే', 'U'), ('రి', '|'), ('కా', 'U'), ('డాం', 'U'), ('డ', '|'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('ని', '|'), ('న', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('జాం', 'U'), ('డ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('మ', 'U'), ('త్త', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('చా', 'U'), ('టె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>అవనిజ కన్నుదోయితొగలందు వెలింగెడు సోమ జానకీ
 కువలయనేత్ర గబ్బిచనుఁగొండలనుండు ఘనంబ మైథిలీ
@@ -1601,32 +1496,29 @@
 దవిలి భజింతు నెల్లపుడు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('జ', '|'), ('క', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('లం', 'U'), ('దు', '|'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('సో', 'U'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('నే', 'U'), ('త్ర', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గొం', 'U'), ('డ', '|'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బ', '|'), ('మై', 'U'), ('థి', '|'), ('లీ', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వ', '|'), ('యౌ', 'U'), ('వ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కున్', 'U'), ('మ', '|'), ('ద', '|'), ('దం', 'U'), ('తి', '|'), ('వీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>ఖరకరవంశజా విను మఖండిత భూతపిశాచ ఢాకినీ
 జ్వరపరితాప సర్వభయవారకమైన భవత్పదాబ్జవి
@@ -1634,32 +1526,29 @@
 ద్ధరబిరుదాంక యేమఱకు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('ర', '|'), ('క', '|'), ('ర', '|'), ('వం', 'U'), ('శ', '|'), ('జా', 'U'), ('వి', '|'), ('ను', '|'), ('మ', '|'), ('ఖం', 'U'), ('డి', '|'), ('త', '|'), ('భూ', 'U'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ఢా', 'U'), ('కి', '|'), ('నీ', 'U'), ('జ్వ', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వ', '|'), ('భ', '|'), ('య', '|'), ('వా', 'U'), ('ర', '|'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('దు', '|'), ('రు', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నీ', 'U'), ('యె', '|'), ('డ', '|'), ('దీ', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వో', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('బి', '|'), ('రు', '|'), ('దాం', 'U'), ('క', '|'), ('యే', 'U'), ('మ', '|'), ('ఱ', '|'), ('కు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>జుఱ్ఱెద మీకథామృతము జుఱ్ఱెద మీపదకంజతోయమున్‌
 జుఱ్ఱెద రామనామమున జొబ్బిలుచున్న సుధారసంబు నే
@@ -1667,32 +1556,29 @@
 తఱ్ఱులతోడి పొత్తిడక దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('తో', 'U'), ('య', '|'), ('మున్', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('బ్బి', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నే', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('గ', '|'), ('రు', '|'), ('చుల్', 'U'), ('గ', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('త', 'U'), ('ఱ్ఱు', '|'), ('ల', '|'), ('తో', 'U'), ('డి', '|'), ('పొ', 'U'), ('త్తి', '|'), ('డ', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ఘోరకృతాంతవీరభటకోటికి గుండెదిగుల్‌ దరిద్రతా
 కారపిశాచసంహరణకార్యవినోది వికుంఠమందిర
@@ -1700,32 +1586,29 @@
 తారకనామ మెన్నుకొన దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ఘో', 'U'), ('ర', '|'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('గుం', 'U'), ('డె', '|'), ('ది', '|'), ('గుల్', 'U'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('తా', 'U'), ('కా', 'U'), ('ర', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('వి', '|'), ('నో', 'U'), ('ది', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('భే', 'U'), ('ది', '|'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('కె', 'U'), ('ల్ల', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('మె', 'U'), ('న్ను', '|'), ('కొ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>విన్నపమాలకించు రఘువీర! నహిప్రతిలోకమందు నా
 కన్నదురాత్ముఁడు బరమకారుణికోత్తమ! వేల్పులందు నీ
@@ -1733,32 +1616,29 @@
 ద్వన్నుత నీవె నాకు గతి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('న్న', '|'), ('ప', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('ర', '|'), ('న', '|'), ('హి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('లో', 'U'), ('క', '|'), ('మం', 'U'), ('దు', '|'), ('నా', 'U'), ('క', 'U'), ('న్న', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డు', '|'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('కా', 'U'), ('రు', '|'), ('ణి', '|'), ('కో', 'U'), ('త్త', '|'), ('మ', '|'), ('వే', 'U'), ('ల్పు', '|'), ('లం', 'U'), ('దు', '|'), ('నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డుం', 'U'), ('బ', '|'), ('తి', '|'), ('త', '|'), ('క', 'U'), ('ల్మ', '|'), ('ష', '|'), ('దూ', 'U'), ('రు', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('నా', 'U'), ('కు', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్ను', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('నా', 'U'), ('కు', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>పెంపనుఁ దల్లివై కలుషబృందసమాగమ మొందకుండ ర
 క్షింపను దండ్రివై మెయువసించు దశేంద్రియరోగముల్‌ నివా
@@ -1766,32 +1646,29 @@
 త్సంపదలీయ నీవెగతి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('పెం', 'U'), ('ప', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('వై', 'U'), ('క', '|'), ('లు', '|'), ('ష', '|'), ('బృం', 'U'), ('ద', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ను', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వై', 'U'), ('మె', '|'), ('యు', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ను', '|'), ('వె', 'U'), ('జ్జు', '|'), ('వై', 'U'), ('కృ', '|'), ('ప', '|'), ('గు', '|'), ('ఱిం', 'U'), ('చి', '|'), ('ప', '|'), ('రం', 'U'), ('బు', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('స', 'U'), ('త్సం', 'U'), ('ప', '|'), ('ద', '|'), ('లీ', 'U'), ('య', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>కుక్షినజాండ పంక్తులొనఁగూర్చి చరాచరజంతుకోటి సం
 రక్షణసేయు తండ్రివి పరంపర నీ తనయుండనైన నా
@@ -1799,32 +1676,29 @@
 ద్రక్షక కర్త వీవె కద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('కు', 'U'), ('క్షి', '|'), ('న', '|'), ('జాం', 'U'), ('డ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('జం', 'U'), ('తు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('ర', '|'), ('నీ', 'U'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('నా', 'U'), ('ప', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నన్', 'U'), ('జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('క', '|'), ('క', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>గద్దరి యోగిహృత్కమల గంధరసానుభవంబుఁజెందు పె
 న్నిద్దపు గండుఁదేఁటి ధరణీసుత కౌఁగిలిపంజరంబునన్‌
@@ -1832,32 +1706,29 @@
 తద్దయు నేఁడు నాకడకు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ద్ద', '|'), ('రి', '|'), ('యో', 'U'), ('గి', '|'), ('హృ', 'U'), ('త్క', '|'), ('మ', '|'), ('ల', '|'), ('గం', 'U'), ('ధ', '|'), ('ర', '|'), ('సా', 'U'), ('ను', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('జెం', 'U'), ('దు', '|'), ('పె', 'U'), ('న్ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('గం', 'U'), ('డు', '|'), ('దే', 'U'), ('టి', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('సు', '|'), ('త', '|'), ('కౌ', 'U'), ('గి', '|'), ('లి', '|'), ('పం', 'U'), ('జ', '|'), ('రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('గు', 'U'), ('ల్కు', '|'), ('రా', 'U'), ('చి', '|'), ('ల', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('గ', '|'), ('దే', 'U'), ('త', 'U'), ('ద్ద', '|'), ('యు', '|'), ('నే', 'U'), ('డు', '|'), ('నా', 'U'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>కలియుగ మర్త్యకోటి నినుఁ గన్గొనరాని విధంబొ భక్తవ
 త్సలతవహింపవో చటుల సాంద్రవిపద్దశ వార్ధిఁగ్రుంకుచో
@@ -1865,32 +1736,29 @@
 తలఁపునలేదే సీత చెఱ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('కో', 'U'), ('టి', '|'), ('ని', '|'), ('ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('వి', '|'), ('ధం', 'U'), ('బొ', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('త', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('టు', '|'), ('ల', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ప', 'U'), ('ద్ద', '|'), ('శ', '|'), ('వా', 'U'), ('ర్ధి', 'U'), ('గ్రుం', 'U'), ('కు', '|'), ('చో', 'U'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('విం', 'U'), ('త', '|'), ('మ', '|'), ('ఱ', '|'), ('పే', 'U'), ('న', '|'), ('రు', '|'), ('లి', 'U'), ('ట్ల', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('లే', 'U'), ('దే', 'U'), ('సీ', 'U'), ('త', '|'), ('చె', '|'), ('ఱ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>జనవర! మీ కథాళి విన సైఁపక కర్ణములందు ఘంటికా
 నినద వినోదముల్‌ సలుపు నీచునకున్‌ వరమిచ్చినావు ని
@@ -1898,32 +1766,29 @@
 దననుత! మాకొసంగుమయ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('ళి', '|'), ('వి', '|'), ('న', '|'), ('సై', 'U'), ('ప', '|'), ('క', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('ని', '|'), ('న', '|'), ('ద', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('నీ', 'U'), ('చు', '|'), ('న', '|'), ('కున్', 'U'), ('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', 'U'), ('న్న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యొ', '|'), ('సం', 'U'), ('గె', '|'), ('దో', 'U'), ('స', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('ను', '|'), ('త', '|'), ('మా', 'U'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('మ', '|'), ('య', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>పాపము లొందువేళ రణపన్నగభూత భయజ్వరాదులం
 దాపద నొందువేళ భరతాగ్రజ మిమ్ము భజించువారికిం
@@ -1931,32 +1796,29 @@
 తాపముమాన్పి కాతువఁట దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లొం', 'U'), ('దు', '|'), ('వే', 'U'), ('ళ', '|'), ('ర', '|'), ('ణ', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('భూ', 'U'), ('త', '|'), ('భ', '|'), ('య', 'U'), ('జ్వ', '|'), ('రా', 'U'), ('దు', '|'), ('లం', 'U'), ('దా', 'U'), ('ప', '|'), ('ద', '|'), ('నొం', 'U'), ('దు', '|'), ('వే', 'U'), ('ళ', '|'), ('భ', '|'), ('ర', '|'), ('తా', 'U'), ('గ్ర', '|'), ('జ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('ద', 'U'), ('మ్ము', '|'), ('డి', '|'), ('రు', 'U'), ('ప్ర', 'U'), ('క్కి', '|'), ('య', '|'), ('లం', 'U'), ('జ', '|'), ('ని', '|'), ('త', 'U'), ('ద్వి', '|'), ('ప', 'U'), ('త్తి', '|'), ('సం', 'U'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('మా', 'U'), ('న్పి', '|'), ('కా', 'U'), ('తు', '|'), ('వ', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>అగణితజన్మకర్మదురితాంబుధిలోఁ బహుదుఃఖవీచికల్‌
 దెగిపడ నీఁదలేక జగతీధవ నీ పదభక్తినావచేఁ
@@ -1964,32 +1826,29 @@
 తగదని చిత్తమందిడక దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('జ', 'U'), ('న్మ', '|'), ('క', '|'), ('ర్మ', '|'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('బు', '|'), ('ధి', '|'), ('లో', 'U'), ('బ', '|'), ('హు', '|'), ('దుః', 'U'), ('ఖ', '|'), ('వీ', 'U'), ('చి', '|'), ('కల్', 'U'), ('దె', '|'), ('గి', '|'), ('ప', '|'), ('డ', '|'), ('నీ', 'U'), ('ద', '|'), ('లే', 'U'), ('క', '|'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('ధ', '|'), ('వ', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('వ', '|'), ('చే', 'U'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('త', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రి', '|'), ('తి', '|'), ('బ', '|'), ('దం', 'U'), ('ప', '|'), ('డి', '|'), ('నా', 'U'), ('దు', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('మా', 'U'), ('న్ప', '|'), ('వే', 'U'), ('త', '|'), ('గ', '|'), ('ద', '|'), ('ని', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('ది', '|'), ('డ', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>నేనొనరించు పాపము లనేకములైనను నాదుజిహ్వకుం
 బానకమయ్యె మీపరమ పావననామము దొంటి చిల్క "రా
@@ -1997,32 +1856,29 @@
 దాని ధరింపఁగోరెదను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('నా', 'U'), ('దు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('కుం', 'U'), ('బా', 'U'), ('న', '|'), ('క', '|'), ('మ', 'U'), ('య్యె', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('దొం', 'U'), ('టి', '|'), ('చి', 'U'), ('ల్క', '|'), ('రా', 'U'), ('మా', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('తు', '|'), ('ది', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('స', 'U'), ('ద్గ', '|'), ('తి', '|'), ('జెం', 'U'), ('దె', '|'), ('గా', 'U'), ('వు', '|'), ('నన్', 'U'), ('దా', 'U'), ('ని', '|'), ('ధ', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>పరధనముల్‌ హరించి పరభామలనంటి పరాన్నమబ్బినన్‌
 మురిపముకాని మీఁదనగు మోసమెఱుంగదు మానసంబు దు
@@ -2030,32 +1886,29 @@
 తఱిదరిఁజేర్చి కాచెదవొ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ముల్', 'U'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('ప', '|'), ('ర', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('ప', '|'), ('రా', 'U'), ('న్న', '|'), ('మ', 'U'), ('బ్బి', '|'), ('నన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('కా', 'U'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('స', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('సం', 'U'), ('బు', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('కా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('హ', '|'), ('తి', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('ద', '|'), ('రి', '|'), ('జే', 'U'), ('ర్చి', '|'), ('కా', 'U'), ('చె', '|'), ('ద', '|'), ('వొ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>చేసితి ఘోరకృత్యములు చేసితి భాగవతాపచారముల్‌
 చేసితి నన్యదైవములఁ జేరి భజించిన వారిపొందు నేఁ
@@ -2063,32 +1916,29 @@
 దాసుఁడనయ్య భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('సి', '|'), ('తి', '|'), ('ఘో', 'U'), ('ర', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('భా', 'U'), ('గ', '|'), ('వ', '|'), ('తా', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('పొం', 'U'), ('దు', '|'), ('నే', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('నే', 'U'), ('ర', '|'), ('ముల్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('చి', 'U'), ('క్కు', '|'), ('ల', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('య', 'U'), ('య్య', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>పరుల ధనంబుఁజూచి పర భామల జూచి హరింపగోరు మ
 ద్గురుతరమానసంబనెడు దొంగనుబట్టి నిరూఢదాస్య వి
@@ -2096,32 +1946,29 @@
 త్తరువునఁ గట్టివేయఁగదె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('జూ', 'U'), ('చి', '|'), ('ప', '|'), ('ర', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రు', '|'), ('మ', 'U'), ('ద్గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('మా', 'U'), ('న', '|'), ('సం', 'U'), ('బ', '|'), ('నె', '|'), ('డు', '|'), ('దొం', 'U'), ('గ', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('దా', 'U'), ('స్య', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('త', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పా', 'U'), ('శ', '|'), ('ము', '|'), ('ల', '|'), ('జు', 'U'), ('ట్టి', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', '|'), ('నే', 'U'), ('మ', '|'), ('రు', 'U'), ('త్త', '|'), ('రు', '|'), ('వు', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('య', '|'), ('గ', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>సలలిత రామనామ జప సారమెఱుంగను గాశికాపురీ
 నిలయుఁడఁగాను మీచరణ నీరజరేణు మహాప్రభావముం
@@ -2130,32 +1977,29 @@
 తలఁచి నుతింప నాతరమె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('జ', '|'), ('ప', '|'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ను', '|'), ('గా', 'U'), ('శి', '|'), ('కా', 'U'), ('పు', '|'), ('రీ', 'U'), ('ని', '|'), ('ల', '|'), ('యు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('రే', 'U'), ('ణు', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ముం', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('న', '|'), ('హ', 'U'), ('ల్య', '|'), ('గా', 'U'), ('ను', '|'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('వ', '|'), ('ర', '|'), ('నీ', 'U'), ('ద', '|'), ('గు', '|'), ('స', 'U'), ('త్య', '|'), ('వా', 'U'), ('క్య', '|'), ('ముం', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('గ', '|'), ('రా', 'U'), ('వ', '|'), ('ణా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('భ', '|'), ('వ', 'U'), ('ద్వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('త', '|'), ('ల', '|'), ('చి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('మె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>పాతకులైన మీ కృపకుఁ బాత్రులు కారె తలంచి చూడ జ
 ట్రాతికిఁగల్గె భావన మరాతికి రాజ్యసుఖంబము గల్గె దు
@@ -2163,32 +2007,29 @@
 దాతవ యెట్టివారలకు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('త', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('మీ', 'U'), ('కృ', '|'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('త్రు', '|'), ('లు', '|'), ('కా', 'U'), ('రె', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('జ', 'U'), ('ట్రా', 'U'), ('తి', '|'), ('కి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('మ', '|'), ('రా', 'U'), ('తి', '|'), ('కి', '|'), ('రా', 'U'), ('జ్య', '|'), ('సు', '|'), ('ఖం', 'U'), ('బ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గె', '|'), ('దు', 'U'), ('ర్జా', 'U'), ('తి', '|'), ('కి', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('బ్బె', '|'), ('గ', '|'), ('పి', '|'), ('జా', 'U'), ('తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('నొం', 'U'), ('దె', '|'), ('గా', 'U'), ('వు', '|'), ('నం', 'U'), ('దా', 'U'), ('త', '|'), ('వ', '|'), ('యె', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>మామక పాతక వ్రజము మాన్పనగణ్యము చిత్రగుప్తు లే
 మేమని వ్రాఁతురో శమనుఁడేమి విధించునొ కాలకింకర
@@ -2196,32 +2037,29 @@
 తామణి యెట్లుగాచెదవొ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('మ', '|'), ('క', '|'), ('పా', 'U'), ('త', '|'), ('క', 'U'), ('వ్ర', '|'), ('జ', '|'), ('ము', '|'), ('మా', 'U'), ('న్ప', '|'), ('న', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ము', '|'), ('చి', 'U'), ('త్ర', '|'), ('గు', 'U'), ('ప్తు', '|'), ('లే', 'U'), ('మే', 'U'), ('మ', '|'), ('ని', 'U'), ('వ్రా', 'U'), ('తు', '|'), ('రో', 'U'), ('శ', '|'), ('మ', '|'), ('ను', '|'), ('డే', 'U'), ('మి', '|'), ('వి', '|'), ('ధిం', 'U'), ('చు', '|'), ('నొ', '|'), ('కా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('ర', 'U'), ('స్తో', 'U'), ('మ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('టే', 'U'), ('మొ', '|'), ('వి', '|'), ('న', '|'), ('జొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('దిం', 'U'), ('త', '|'), ('కు', '|'), ('ము', 'U'), ('న్నె', '|'), ('దీ', 'U'), ('న', '|'), ('చిం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('యె', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('చె', '|'), ('ద', '|'), ('వొ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>దాసిన చుట్టమా శబరి దాని దయామతి నేలినావు నీ
 దాసుని దాసుడా గుహుడు తావక దాస్య మొసంగినావు నే
@@ -2229,32 +2067,29 @@
 దాసులలోన నేనొకఁడ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('సి', '|'), ('న', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మా', 'U'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('దా', 'U'), ('ని', '|'), ('ద', '|'), ('యా', 'U'), ('మ', '|'), ('తి', '|'), ('నే', 'U'), ('లి', '|'), ('నా', 'U'), ('వు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ని', '|'), ('దా', 'U'), ('సు', '|'), ('డా', 'U'), ('గు', '|'), ('హు', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('దా', 'U'), ('స్య', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('నే', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పా', 'U'), ('ప', '|'), ('మో', 'U'), ('వి', '|'), ('ను', '|'), ('తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('గా', 'U'), ('వ', '|'), ('వు', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('నొ', '|'), ('క', '|'), ('డ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>దీక్షవహించి నా కొలది దీనుల నెందఱిఁ గాచితో జగ
 ద్రక్షక తొల్లి యా ద్రుపదరాజతనూజ తలంచినంతనే
@@ -2262,32 +2097,29 @@
 త్యక్షము గావవేమిటికి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('క్ష', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('నా', 'U'), ('కొ', '|'), ('ల', '|'), ('ది', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('గా', 'U'), ('చి', '|'), ('తో', 'U'), ('జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('క', '|'), ('తొ', 'U'), ('ల్లి', '|'), ('యా', 'U'), ('ద్రు', '|'), ('ప', '|'), ('ద', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('నే', 'U'), ('య', 'U'), ('క్ష', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('ల్వ', '|'), ('లి', '|'), ('డి', '|'), ('త', 'U'), ('క్క', '|'), ('ట', '|'), ('నా', 'U'), ('మొ', '|'), ('ఱ', '|'), ('జి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('చి', 'U'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('ము', '|'), ('గా', 'U'), ('వ', '|'), ('వే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>నీలఘనాభమూర్తివగు నిన్నుఁగనుంగొనఁగోరి వేడినన్‌
 జాలముసేసి డాగెదవు సంస్తుతికెక్కిన రామనామ మే
@@ -2295,32 +2127,29 @@
 ద్దాలముగాదె మాయెడల దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('నుం', 'U'), ('గొ', '|'), ('న', '|'), ('గో', 'U'), ('రి', '|'), ('వే', 'U'), ('డి', '|'), ('నన్', 'U'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('సే', 'U'), ('సి', '|'), ('డా', 'U'), ('గె', '|'), ('ద', '|'), ('వు', '|'), ('సం', 'U'), ('స్తు', '|'), ('తి', '|'), ('కె', 'U'), ('క్కి', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మే', 'U'), ('మూ', 'U'), ('ల', '|'), ('ను', '|'), ('దా', 'U'), ('చు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('ము', 'U'), ('క్తి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ప', '|'), ('ది', '|'), ('పా', 'U'), ('ప', '|'), ('మూ', 'U'), ('ల', '|'), ('కు', 'U'), ('ద్దా', 'U'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('మా', 'U'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>వలదు పరాకు భక్తజన వత్సల నీ చరితంబు వమ్ముగా
 వలదు పరాకు నీ బిరుదు వజ్రమువంటిది కావకూరకే
@@ -2328,32 +2157,29 @@
 దలఁతుమె కా నిరంతరము దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('దు', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('న', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('వ', 'U'), ('మ్ము', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('నీ', 'U'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('వ', 'U'), ('జ్ర', '|'), ('ము', '|'), ('వం', 'U'), ('టి', '|'), ('ది', '|'), ('కా', 'U'), ('వ', '|'), ('కూ', 'U'), ('ర', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('నా', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('కి', '|'), ('దె', 'U'), ('ప్ప', '|'), ('వు', '|'), ('గా', 'U'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>తప్పులెఱుంగలేక దురితంబులు సేసితినంటి నీవు మా
 యప్పవుగావుమంటి నిఁక నన్యులకున్‌ నుదురంటనంటి నీ
@@ -2361,32 +2187,29 @@
 తప్పులకెల్ల నీవెగతి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ప్పు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('తి', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('వు', '|'), ('మా', 'U'), ('య', 'U'), ('ప్ప', '|'), ('వు', '|'), ('గా', 'U'), ('వు', '|'), ('మం', 'U'), ('టి', '|'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కున్', 'U'), ('ను', '|'), ('దు', '|'), ('రం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('ప్పి', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('ను', '|'), ('లొ', 'U'), ('ప్పి', '|'), ('న', '|'), ('బం', 'U'), ('టు', '|'), ('కు', '|'), ('బం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('త', 'U'), ('ప్పు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>ఇతఁడు దురాత్ముఁడంచు జనులెన్నఁగ నాఱడిఁగొంటి నేనెపో
 పతితుఁడనంటిపో పతితపావనమూర్తివి నీవుగల్గ నే
@@ -2395,32 +2218,29 @@
 ద్గతమని నమ్మికొల్చెదను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('త', '|'), ('డు', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డం', 'U'), ('చు', '|'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('నా', 'U'), ('ఱ', '|'), ('డి', '|'), ('గొం', 'U'), ('టి', '|'), ('నే', 'U'), ('నె', '|'), ('పో', 'U'), ('ప', '|'), ('తి', '|'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('టి', '|'), ('పో', 'U'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వి', '|'), ('నీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నే', 'U'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('వే', 'U'), ('డ', '|'), ('నం', 'U'), ('టి', '|'), ('ని', '|'), ('హ', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ని', 'U'), ('మ్ము', '|'), ('ప', '|'), ('రం', 'U'), ('బొ', '|'), ('సం', 'U'), ('గు', '|'), ('మీ', 'U'), ('య', '|'), ('తు', '|'), ('లి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('క్ష', '|'), ('ర', '|'), ('పా', 'U'), ('ళి', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('హృ', 'U'), ('ద్గ', '|'), ('త', '|'), ('మ', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>అంచితమైన నీదు కరుణామృతసారము నాదుపైని బ్రో
 క్షించినఁ జాలు దాన నిరసించెద నా దురితంబులెల్లఁ దూ
@@ -2428,32 +2248,29 @@
 దంచెదఁ గాలకింకరుల దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('చి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('మృ', '|'), ('త', '|'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('నా', 'U'), ('దు', '|'), ('పై', 'U'), ('ని', 'U'), ('బ్రో', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చె', '|'), ('ద', '|'), ('నా', 'U'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దూ', 'U'), ('లిం', 'U'), ('చె', '|'), ('ద', '|'), ('వై', 'U'), ('రి', '|'), ('వ', 'U'), ('ర్గ', '|'), ('మె', '|'), ('డ', '|'), ('లిం', 'U'), ('చె', '|'), ('ద', '|'), ('గో', 'U'), ('ర్కు', '|'), ('ల', '|'), ('నీ', 'U'), ('దు', '|'), ('బం', 'U'), ('ట', '|'), ('నై', 'U'), ('దం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('రు', '|'), ('ల', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>జలనిధులేడునొక్క మొగిఁ జక్కికిఁదెచ్చె శరంబు ఱాతినిం
 పలరగఁ జేసెనాతిగఁ బదాబ్జపరాగము నీ చరిత్రముం
@@ -2461,32 +2278,29 @@
 దలఁప నగణ్యమయ్య యిది దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధు', '|'), ('లే', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్క', '|'), ('మొ', '|'), ('గి', '|'), ('జ', 'U'), ('క్కి', '|'), ('కి', '|'), ('దె', 'U'), ('చ్చె', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('ఱా', 'U'), ('తి', '|'), ('నిం', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('జే', 'U'), ('సె', '|'), ('నా', 'U'), ('తి', '|'), ('గ', '|'), ('బ', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ప', '|'), ('రా', 'U'), ('గ', '|'), ('ము', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('ముం', 'U'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లు', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('వు', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('న', '|'), ('గ', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('యి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>కోతికి శక్యమా యసుర కోటుల గెల్వను గెల్చెబో నిజం
 బాతని మేన శీతకరుఁడౌట దవానలుఁడెట్టివింత మా
@@ -2494,32 +2308,29 @@
 ధాతకు శక్యమా బొగడ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('తి', '|'), ('కి', '|'), ('శ', 'U'), ('క్య', '|'), ('మా', 'U'), ('య', '|'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టు', '|'), ('ల', '|'), ('గె', 'U'), ('ల్వ', '|'), ('ను', '|'), ('గె', 'U'), ('ల్చె', '|'), ('బో', 'U'), ('ని', '|'), ('జం', 'U'), ('బా', 'U'), ('త', '|'), ('ని', '|'), ('మే', 'U'), ('న', '|'), ('శీ', 'U'), ('త', '|'), ('క', '|'), ('రు', '|'), ('డౌ', 'U'), ('ట', '|'), ('ద', '|'), ('వా', 'U'), ('న', '|'), ('లు', '|'), ('డె', 'U'), ('ట్టి', '|'), ('విం', 'U'), ('త', '|'), ('మా', 'U'), ('సీ', 'U'), ('త', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('మీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మున్', 'U'), ('ధా', 'U'), ('త', '|'), ('కు', '|'), ('శ', 'U'), ('క్య', '|'), ('మా', 'U'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>భూపలలామ రామ రఘుపుంగవరామ త్రిలోకరాజ్య సం
 స్థాపనరామ మోక్షఫలదాయకరామ మదీయపాపముల్‌
@@ -2527,32 +2338,29 @@
 తాపతి రామ భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('ప', '|'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', 'U'), ('త్రి', '|'), ('లో', 'U'), ('క', '|'), ('రా', 'U'), ('జ్య', '|'), ('సం', 'U'), ('స్థా', 'U'), ('ప', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('మో', 'U'), ('క్ష', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('పా', 'U'), ('ప', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('రా', 'U'), ('మ', '|'), ('ని', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('న', 'U'), ('య్య', '|'), ('రా', 'U'), ('మ', '|'), ('సీ', 'U'), ('తా', 'U'), ('ప', '|'), ('తి', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>నీ సహజంబు సాత్త్వికము నీ విడిపట్టు సుధాపయోధి ప
 ద్మాసనుఁడాత్మజుండు గమలాలయ నీ ప్రియురాలు నీకు సిం
@@ -2561,32 +2369,29 @@
 దాసుల భాగ్యమెట్టిదయ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('స', '|'), ('హ', '|'), ('జం', 'U'), ('బు', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('డి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('సు', '|'), ('ధా', 'U'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('స', '|'), ('ను', '|'), ('డా', 'U'), ('త్మ', '|'), ('జుం', 'U'), ('డు', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ల', '|'), ('య', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('యు', '|'), ('రా', 'U'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('గొ', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('స', '|'), ('మ', 'U'), ('క్షు', '|'), ('లు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('భా', 'U'), ('స్క', '|'), ('రుల్', 'U'), ('నీ', 'U'), ('సు', '|'), ('మ', '|'), ('త', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('ది', '|'), ('ఫ', '|'), ('ణి', '|'), ('నీ', 'U'), ('వె', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('మె', 'U'), ('ట్టి', '|'), ('ద', '|'), ('య', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>చరణము సోఁకినట్టి శిల జవ్వనిరూపగు టొక్కవింత సు
 స్థిరముగ నీటిపై గిరులు దేలిన దొక్కటి వింతగాని మీ
@@ -2594,32 +2399,29 @@
 ధరను ధరాత్మజారమణ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సో', 'U'), ('కి', '|'), ('న', 'U'), ('ట్టి', '|'), ('శి', '|'), ('ల', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('రూ', 'U'), ('ప', '|'), ('గు', '|'), ('టొ', 'U'), ('క్క', '|'), ('విం', 'U'), ('త', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('టి', '|'), ('పై', 'U'), ('గి', '|'), ('రు', '|'), ('లు', '|'), ('దే', 'U'), ('లి', '|'), ('న', '|'), ('దొ', 'U'), ('క్క', '|'), ('టి', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('ని', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', '|'), ('న', 'U'), ('ర్చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('స', 'U'), ('ద్గ', '|'), ('తి', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('దెం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('యీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('ధ', '|'), ('రా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>దైవము తల్లిదండ్రి తగుదాత గురుండు సఖుండు నిన్నె కా
 భావన సేయుచున్న తఱిఁబాపములెల్ల మనోవికార దు
@@ -2627,32 +2429,29 @@
 త్పావనమూర్తి భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('దై', 'U'), ('వ', '|'), ('ము', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('త', '|'), ('గు', '|'), ('దా', 'U'), ('త', '|'), ('గు', '|'), ('రుం', 'U'), ('డు', '|'), ('స', '|'), ('ఖుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్నె', '|'), ('కా', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('త', '|'), ('ఱి', '|'), ('బా', 'U'), ('ప', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('నో', 'U'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్భా', 'U'), ('వి', '|'), ('తు', '|'), ('జే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('వి', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('మీ', 'U'), ('జ', '|'), ('గ', 'U'), ('త్పా', 'U'), ('వ', '|'), ('న', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>వాసవ రాజ్యభోగ సుఖవార్ధిని దేలు ప్రభుత్వమబ్బినా
 ఉయాసకు మేరలేదు కనకాద్రిసమానధనంబు గూర్చినం
@@ -2661,32 +2460,29 @@
 దాసునిగాఁగ నేలికొను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('స', '|'), ('వ', '|'), ('రా', 'U'), ('జ్య', '|'), ('భో', 'U'), ('గ', '|'), ('సు', '|'), ('ఖ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ని', '|'), ('దే', 'U'), ('లు', 'U'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('మ', 'U'), ('బ్బి', '|'), ('నా', 'U'), ('ఉ', '|'), ('యా', 'U'), ('స', '|'), ('కు', '|'), ('మే', 'U'), ('ర', '|'), ('లే', 'U'), ('దు', '|'), ('క', '|'), ('న', '|'), ('కా', 'U'), ('ద్రి', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నం', 'U'), ('గా', 'U'), ('సు', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('దు', '|'), ('క', '|'), ('ని', '|'), ('కా', 'U'), ('న', '|'), ('క', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('స', '|'), ('ర', '|'), ('బో', 'U'), ('వ', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('కు', '|'), ('జా', 'U'), ('లు', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ని', '|'), ('గా', 'U'), ('గ', '|'), ('నే', 'U'), ('లి', '|'), ('కొ', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>సూరిజనుల్‌ దయాపరులు సూనృతవాదులలుబ్ధమానవుల్‌
 వీరపతివ్రతాంగనలు విప్రులు గోవులు వేదముల్‌ మహీ
@@ -2694,32 +2490,29 @@
 త్కార మెఱుంగలే రకట దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('రి', '|'), ('జ', '|'), ('నుల్', 'U'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వా', 'U'), ('దు', '|'), ('ల', '|'), ('లు', 'U'), ('బ్ధ', '|'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('వీ', 'U'), ('ర', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తాం', 'U'), ('గ', '|'), ('న', '|'), ('లు', '|'), ('వి', 'U'), ('ప్రు', '|'), ('లు', '|'), ('గో', 'U'), ('వు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('మ', '|'), ('హీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ర', '|'), ('క', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>వారిచరావతారమున వారధిలోఁ జొఱఁబాఱిఁ క్రోధ వి
 స్తారగుడైన యా నిగమ తస్కరవీర నిశాచరేంద్రునిన్‌
@@ -2727,32 +2520,29 @@
 దారతనిచ్చితీవెగద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('రి', '|'), ('చ', '|'), ('రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('లో', 'U'), ('జొ', '|'), ('ఱ', '|'), ('బా', 'U'), ('ఱి', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('న', '|'), ('యా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వీ', 'U'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('రేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('జే', 'U'), ('రి', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('చి', 'U'), ('క్కె', '|'), ('డ', '|'), ('లిం', 'U'), ('చి', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కిన్', 'U'), ('మ', '|'), ('హో', 'U'), ('దా', 'U'), ('ర', '|'), ('త', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>కరమనురక్తి మందరము గవ్వముగా నహిరాజు ద్రాడుగా
 దొరకొని దేవదానవులు దుగ్ధపయోధి మథించుచున్నచో
@@ -2760,32 +2550,29 @@
 ధరము ధరించితీవె కద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గ', 'U'), ('వ్వ', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('హి', '|'), ('రా', 'U'), ('జు', '|'), ('ద్రా', 'U'), ('డు', '|'), ('గా', 'U'), ('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('ని', '|'), ('దే', 'U'), ('వ', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('దు', 'U'), ('గ్ధ', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('మ', '|'), ('థిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('ల్ల', '|'), ('డ', '|'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్మ', '|'), ('మై', 'U'), ('ధ', '|'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ధారుణి జాపజుట్టిన విధంబునగైకొని హేమనేత్రుఁడ
 వ్వారిధిలోన డాఁగినను వానివధించి వరాహమూర్తివై
@@ -2793,32 +2580,29 @@
 స్తార మొనర్చితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('జా', 'U'), ('ప', '|'), ('జు', 'U'), ('ట్టి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('హే', 'U'), ('మ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డ', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('డా', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('దొం', 'U'), ('టి', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('శృం', 'U'), ('గ', '|'), ('ము', '|'), ('నన్', 'U'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>పెటపెట నుక్కు కంబమున భీకరదంత నఖాంకుర ప్రభా
 పటలము గప్ప నుప్పతిలి భండనవీథి నృసింహభీకర
@@ -2826,32 +2610,29 @@
 తటఁగృపఁజూచితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ట', '|'), ('పె', '|'), ('ట', '|'), ('ను', 'U'), ('క్కు', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('న', '|'), ('ఖాం', 'U'), ('కు', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('ప్ప', '|'), ('తి', '|'), ('లి', '|'), ('భం', 'U'), ('డ', '|'), ('న', '|'), ('వీ', 'U'), ('థి', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('ప', '|'), ('టు', '|'), ('శ', 'U'), ('క్తి', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పున్', 'U'), ('వి', '|'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('సు', '|'), ('రా', 'U'), ('రి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('గృ', '|'), ('ప', '|'), ('జూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>పదయుగళంబు భూగగన భాగములన్‌ వెసనూని విక్రమా
 స్పదుఁడగు నబ్బలీంద్రునొక పాదమునం దలక్రిందనొత్తి మే
@@ -2859,32 +2640,29 @@
 త్సదమలమూర్తి వీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('భూ', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('నూ', 'U'), ('ని', '|'), ('వి', 'U'), ('క్ర', '|'), ('మా', 'U'), ('స్ప', '|'), ('దు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('బ్బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('నొ', '|'), ('క', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('నొ', 'U'), ('త్తి', '|'), ('మే', 'U'), ('లొ', '|'), ('ద', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('బు', '|'), ('రు', '|'), ('హూ', 'U'), ('తు', '|'), ('ని', '|'), ('కి', 'U'), ('య్య', '|'), ('వ', '|'), ('టుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('చి', 'U'), ('త్స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>ఇరువదియొక్కమాఱు ధరణీశుల నెల్ల వధించి తత్కళే
 బర రుధిర ప్రవాహమునఁ బైతృకతర్పణ మొప్పఁజేసి భూ
@@ -2892,32 +2670,29 @@
 ధరణినొసంగితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('రు', '|'), ('వ', '|'), ('ది', '|'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('శు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్క', '|'), ('ళే', 'U'), ('బ', '|'), ('ర', '|'), ('రు', '|'), ('ధి', '|'), ('ర', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('జే', 'U'), ('సి', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('సొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>దురమునఁ దాటకం దునిమి ధూర్జటివిల్‌ దునుమాడి సీతనుం
 బరిణయమంది తండ్రిపనుపన్‌ ఘనకాననభూమి కేఁగి దు
@@ -2925,32 +2700,29 @@
 ధరములఁ గూల్చితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('ట', '|'), ('కం', 'U'), ('దు', '|'), ('ని', '|'), ('మి', '|'), ('ధూ', 'U'), ('ర్జ', '|'), ('టి', '|'), ('విల్', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('సీ', 'U'), ('త', '|'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('ణ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('తం', 'U'), ('డ్రి', '|'), ('ప', '|'), ('ను', '|'), ('పన్', 'U'), ('ఘ', '|'), ('న', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('టు', '|'), ('చం', 'U'), ('డ', '|'), ('కాం', 'U'), ('డ', '|'), ('కు', '|'), ('లి', '|'), ('శా', 'U'), ('హ', '|'), ('తి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>అనుపమ యాదవాన్వయసుధాబ్ధిసుధానిధి కృష్ణమూర్తి నీ
 కనుజుఁడుగా జనించి కుజనావళి నెల్ల నడంచి రోహిణీ
@@ -2958,32 +2730,29 @@
 తనరిన వేల్పవీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('యా', 'U'), ('ద', '|'), ('వా', 'U'), ('న్వ', '|'), ('య', '|'), ('సు', '|'), ('ధా', 'U'), ('బ్ధి', '|'), ('సు', '|'), ('ధా', 'U'), ('ని', '|'), ('ధి', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('గా', 'U'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('కు', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('రో', 'U'), ('హి', '|'), ('ణీ', 'U'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డ', '|'), ('నం', 'U'), ('గ', '|'), ('బా', 'U'), ('హు', '|'), ('బ', '|'), ('ల', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ము', '|'), ('నన్', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('త', '|'), ('న', '|'), ('రి', '|'), ('న', '|'), ('వే', 'U'), ('ల్ప', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>సురలునుతింపగాఁ ద్రిపుర సుందరులన్‌ వరియింప బుద్ధరూ
 పరయఁగ దాల్చితీవు త్రిపురాసురకోటి దహించుచున్నప్పుడా
@@ -2991,32 +2760,29 @@
 త్కర మొనరించితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద్రి', '|'), ('పు', '|'), ('ర', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('లన్', 'U'), ('వ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('బు', 'U'), ('ద్ధ', '|'), ('రూ', 'U'), ('ప', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వు', 'U'), ('త్రి', '|'), ('పు', '|'), ('రా', 'U'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('ద', '|'), ('హిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('ఖో', 'U'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>సంకరదుర్గమై దురిత సంకులమైన జగంబుజూచి స
 ర్వంకషలీల నుత్తమ తురంగమునెక్కి కరాసిఁబూని వీ
@@ -3024,32 +2790,29 @@
 తంక మొనర్చితీవెకద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('క', '|'), ('ర', '|'), ('దు', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('కు', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ష', '|'), ('లీ', 'U'), ('ల', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('క', '|'), ('రా', 'U'), ('సి', '|'), ('బూ', 'U'), ('ని', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>మనమున నూహపోహణలు మర్వకమున్నె కఫాదిరోగముల్‌
 దనువుననంటి మేనిబిగి దప్పకమున్నె నరుండు మోక్ష సా
@@ -3057,32 +2820,29 @@
 ల్తనువునకున్‌ విరోధమిది దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('హ', '|'), ('పో', 'U'), ('హ', '|'), ('ణ', '|'), ('లు', '|'), ('మ', 'U'), ('ర్వ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('క', '|'), ('ఫా', 'U'), ('ది', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('నం', 'U'), ('టి', '|'), ('మే', 'U'), ('ని', '|'), ('బి', '|'), ('గి', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('మో', 'U'), ('క్ష', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', 'U'), ('త్త్వ', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('ల్త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('వి', '|'), ('రో', 'U'), ('ధ', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>ముదమున కాటపట్టు భవమోహమద ద్విరదాంకుశంబు సం
 పదల కొటారు కోరికల పంట పరంబునకాది వైరుల
@@ -3090,32 +2850,29 @@
 త్సదమల నామసంస్మరణ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('కా', 'U'), ('ట', '|'), ('ప', 'U'), ('ట్టు', '|'), ('భ', '|'), ('వ', '|'), ('మో', 'U'), ('హ', '|'), ('మ', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ర', '|'), ('దాం', 'U'), ('కు', '|'), ('శం', 'U'), ('బు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('కొ', '|'), ('టా', 'U'), ('రు', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('పం', 'U'), ('ట', '|'), ('ప', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('వై', 'U'), ('రు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', '|'), ('న', '|'), ('జ', '|'), ('యిం', 'U'), ('చు', 'U'), ('త్రో', 'U'), ('వ', '|'), ('వి', '|'), ('ప', '|'), ('ద', 'U'), ('బ్ధి', '|'), ('కి', '|'), ('నా', 'U'), ('వ', '|'), ('గ', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('భ', '|'), ('వ', 'U'), ('త్స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>దురితలతానుసారి భయదుఃఖకదంబము రామనామ భీ
 కరతర హేతిచేఁదెగి వకావకలై చనకుండ నేర్చు నే
@@ -3123,32 +2880,29 @@
 త్కరము విలీనమై చనదె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('తా', 'U'), ('ను', '|'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('య', '|'), ('దుః', 'U'), ('ఖ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('హే', 'U'), ('తి', '|'), ('చే', 'U'), ('దె', '|'), ('గి', '|'), ('వ', '|'), ('కా', 'U'), ('వ', '|'), ('క', '|'), ('లై', 'U'), ('చ', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('ద', '|'), ('రి', '|'), ('కొ', '|'), ('ని', '|'), ('మం', 'U'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖ', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('నన్', 'U'), ('శ', '|'), ('ల', '|'), ('భా', 'U'), ('ది', '|'), ('కీ', 'U'), ('ట', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>హరిపదభక్తి నింద్రియజయాన్వితుఁ డుత్తముఁడింద్రియంబులన్‌
 మరుగక నిల్పనూదినను మధ్యముఁడింద్రియపారవశ్యుఁడై
@@ -3156,32 +2910,29 @@
 దరమున నెట్లుకాచెదవొ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('నిం', 'U'), ('ద్రి', '|'), ('య', '|'), ('జ', '|'), ('యా', 'U'), ('న్వి', '|'), ('తు', '|'), ('డు', 'U'), ('త్త', '|'), ('ము', '|'), ('డిం', 'U'), ('ద్రి', '|'), ('యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', '|'), ('రు', '|'), ('గ', '|'), ('క', '|'), ('ని', 'U'), ('ల్ప', '|'), ('నూ', 'U'), ('ది', '|'), ('న', '|'), ('ను', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('డిం', 'U'), ('ద్రి', '|'), ('య', '|'), ('పా', 'U'), ('ర', '|'), ('వ', 'U'), ('శ్యు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('చో', 'U'), ('ని', '|'), ('కృ', 'U'), ('ష్టు', '|'), ('డ', '|'), ('ని', '|'), ('ప', 'U'), ('ల్క', '|'), ('గ', '|'), ('దు', '|'), ('ర్మ', '|'), ('తి', '|'), ('నై', 'U'), ('న', '|'), ('న', 'U'), ('న్ను', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నె', 'U'), ('ట్లు', '|'), ('కా', 'U'), ('చె', '|'), ('ద', '|'), ('వొ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>వనకరిచిక్కె మైనసకు వాచవికిం జెడిపోయె మీను తా
 వినికికిఁ జిక్కెఁ జిల్వ గనువేఁదుఱు జెందెను లేళ్ళు తావిలో
@@ -3189,32 +2940,29 @@
 ధనములనీవె కావదగు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('క', '|'), ('రి', '|'), ('చి', 'U'), ('క్కె', '|'), ('మై', 'U'), ('న', '|'), ('స', '|'), ('కు', '|'), ('వా', 'U'), ('చ', '|'), ('వి', '|'), ('కిం', 'U'), ('జె', '|'), ('డి', '|'), ('పో', 'U'), ('యె', '|'), ('మీ', 'U'), ('ను', '|'), ('తా', 'U'), ('వి', '|'), ('ని', '|'), ('కి', '|'), ('కి', '|'), ('జి', 'U'), ('క్కె', '|'), ('జి', 'U'), ('ల్వ', '|'), ('గ', '|'), ('ను', '|'), ('వే', 'U'), ('దు', '|'), ('ఱు', '|'), ('జెం', 'U'), ('దె', '|'), ('ను', '|'), ('లే', 'U'), ('ళ్ళు', '|'), ('తా', 'U'), ('వి', '|'), ('లో', 'U'), ('మ', '|'), ('ని', '|'), ('కి', '|'), ('న', '|'), ('శిం', 'U'), ('చె', '|'), ('దే', 'U'), ('టి', '|'), ('త', '|'), ('ర', '|'), ('మా', 'U'), ('యి', '|'), ('రు', '|'), ('మూ', 'U'), ('టి', '|'), ('ని', '|'), ('గె', 'U'), ('ల్వ', '|'), ('నై', 'U'), ('దు', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వ', '|'), ('ద', '|'), ('గు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>కరములు మీకు మ్రొక్కులిడఁ కన్నులు మిమ్మునె చూడ జిహ్వ మీ
 స్మరణఁ దనర్ప వీనులు భవత్కథలన్‌ వినుచుండ నాస మీ
@@ -3222,32 +2970,29 @@
 త్కరమిది చేయవే కృపను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లి', '|'), ('డ', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('నె', '|'), ('చూ', 'U'), ('డ', '|'), ('జి', 'U'), ('హ్వ', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', '|'), ('న', 'U'), ('ర్ప', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థ', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('స', '|'), ('మీ', 'U'), ('య', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('బె', 'U'), ('ట్టు', '|'), ('పూ', 'U'), ('స', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('గొ', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('చే', 'U'), ('య', '|'), ('వే', 'U'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>చిరతరభక్తి నొక్కతులసీదళ మర్పణ సేయువాఁడు ఖే
 చరగరుడోరగ ప్రముఖసంఘములో వెలుఁగన్‌ సదాభవత్‌
@@ -3255,32 +3000,29 @@
 త్పర మఱచేతిధాత్రిగద దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('నొ', 'U'), ('క్క', '|'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళ', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('ఖే', 'U'), ('చ', '|'), ('ర', '|'), ('గ', '|'), ('రు', '|'), ('డో', 'U'), ('ర', '|'), ('గ', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లో', 'U'), ('వె', '|'), ('లు', '|'), ('గన్', 'U'), ('స', '|'), ('దా', 'U'), ('భ', '|'), ('వత్', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', '|'), ('మ', '|'), ('ఱ', '|'), ('చే', 'U'), ('తి', '|'), ('ధా', 'U'), ('త్రి', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>భానుఁడు తూర్పునందు గనుపట్టినఁ బావక చంద్రతేజముల్‌
 హీనతఁజెందినట్లు జగదేకవిరాజితమైన నీ పద
@@ -3288,32 +3030,29 @@
 దానవ గర్వనిర్దళన దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('ను', '|'), ('డు', '|'), ('తూ', 'U'), ('ర్పు', '|'), ('నం', 'U'), ('దు', '|'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('బా', 'U'), ('వ', '|'), ('క', '|'), ('చం', 'U'), ('ద్ర', '|'), ('తే', 'U'), ('జ', '|'), ('ముల్', 'U'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('జెం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('బ', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('మ', '|'), ('రీ', 'U'), ('చు', '|'), ('ల', '|'), ('డం', 'U'), ('గ', '|'), ('కుం', 'U'), ('డు', '|'), ('నే', 'U'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ని', '|'), ('ర్ద', '|'), ('ళ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>నీ మహనీయతత్త్వ రసనిర్ణయబోధకథామృతాబ్ధిలోఁ
 దామును గ్రుంకులాడక వృథా తనుకష్టముజెంది మానవుం
@@ -3321,32 +3060,29 @@
 త్తామసపంకముల్‌ విడునె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('స', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('బో', 'U'), ('ధ', '|'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('తా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', 'U'), ('గ్రుం', 'U'), ('కు', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('త', '|'), ('ను', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('మా', 'U'), ('న', '|'), ('వుం', 'U'), ('డీ', 'U'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('క', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('నిం', 'U'), ('గి', '|'), ('న', '|'), ('దు', 'U'), ('ర్వి', '|'), ('కా', 'U'), ('ర', '|'), ('హృ', 'U'), ('త్తా', 'U'), ('మ', '|'), ('స', '|'), ('పం', 'U'), ('క', '|'), ('ముల్', 'U'), ('వి', '|'), ('డు', '|'), ('నె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>కాంచన వస్తుసంకలిత కల్మషమగ్నిపుటంబు బెట్టి వా
 రించినరీతి నాత్మనిగిడించిన దుష్కర దుర్మలత్రయం
@@ -3354,32 +3090,29 @@
 త్కాంచనకుండలాభరణ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('చ', '|'), ('న', '|'), ('వ', 'U'), ('స్తు', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('క', 'U'), ('ల్మ', '|'), ('ష', '|'), ('మ', 'U'), ('గ్ని', '|'), ('పు', '|'), ('టం', 'U'), ('బు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('త్మ', '|'), ('ని', '|'), ('గి', '|'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('దు', '|'), ('ర్మ', '|'), ('ల', 'U'), ('త్ర', '|'), ('యం', 'U'), ('బం', 'U'), ('చి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గ', '|'), ('ద', '|'), ('హ', '|'), ('నా', 'U'), ('ర్చి', '|'), ('ద', '|'), ('గు', 'U'), ('ల్ప', '|'), ('క', '|'), ('పా', 'U'), ('యు', '|'), ('నే', 'U'), ('క', '|'), ('న', 'U'), ('త్కాం', 'U'), ('చ', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('లా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>నీ సతి పెక్కుగల్ములిడ నేర్పరి లోక మకల్మషంబుగా
 నీ సుత సేయు పావనము నిర్మితి కార్యధురీణదక్షుఁడై
@@ -3387,32 +3120,29 @@
 దాసుల కీప్సితార్థములు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('స', '|'), ('తి', '|'), ('పె', 'U'), ('క్కు', '|'), ('గ', 'U'), ('ల్ము', '|'), ('లి', '|'), ('డ', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('లో', 'U'), ('క', '|'), ('మ', '|'), ('క', 'U'), ('ల్మ', '|'), ('షం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('సు', '|'), ('త', '|'), ('సే', 'U'), ('యు', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('ని', '|'), ('ర్మి', '|'), ('తి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('ద', 'U'), ('క్షు', '|'), ('డై', 'U'), ('నీ', 'U'), ('సు', '|'), ('తు', '|'), ('డి', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('గ', 'U'), ('ల్గ', '|'), ('కుం', 'U'), ('డు', '|'), ('నే', 'U'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('కీ', 'U'), ('ప్సి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>వారిజపత్రమందిడిన వారివిధంబున వర్తనీయమం
 దారయ రొంపిలోన దనువంటని కుమ్మర పుర్వురీతి సం
@@ -3420,32 +3150,29 @@
 త్కారమెఱింగి మానవుఁడు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('రి', '|'), ('జ', '|'), ('ప', 'U'), ('త్ర', '|'), ('మం', 'U'), ('ది', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('య', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('వం', 'U'), ('ట', '|'), ('ని', '|'), ('కు', 'U'), ('మ్మ', '|'), ('ర', '|'), ('పు', 'U'), ('ర్వు', '|'), ('రీ', 'U'), ('తి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మొం', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ఎక్కడి తల్లితండ్రి సుతులెక్కడివారు కళత్రబాంధవం
 బెక్కడ జీవుఁడెట్టి తనువెత్తినఁ బుట్టుచుఁ బోవుచున్నవాఁ
@@ -3454,32 +3181,29 @@
 టక్కరి మాయలందిడక దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('క్క', '|'), ('డి', '|'), ('త', 'U'), ('ల్లి', '|'), ('తం', 'U'), ('డ్రి', '|'), ('సు', '|'), ('తు', '|'), ('లె', 'U'), ('క్క', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('బాం', 'U'), ('ధ', '|'), ('వం', 'U'), ('బె', 'U'), ('క్క', '|'), ('డ', '|'), ('జీ', 'U'), ('వు', '|'), ('డె', 'U'), ('ట్టి', '|'), ('త', '|'), ('ను', '|'), ('వె', 'U'), ('త్తి', '|'), ('న', '|'), ('బు', 'U'), ('ట్టు', '|'), ('చు', '|'), ('బో', 'U'), ('వు', '|'), ('చు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డొ', 'U'), ('క్క', '|'), ('డె', '|'), ('పా', 'U'), ('ప', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('ల', '|'), ('మొం', 'U'), ('ది', '|'), ('న', '|'), ('నొ', 'U'), ('క్క', '|'), ('డె', '|'), ('కా', 'U'), ('న', '|'), ('రా', 'U'), ('డు', '|'), ('వే', 'U'), ('ఱొ', 'U'), ('క్క', '|'), ('డు', '|'), ('వెం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('భ', '|'), ('వ', '|'), ('మొ', 'U'), ('ల్ల', '|'), ('న', '|'), ('యా', 'U'), ('కృ', '|'), ('ప', '|'), ('జూ', 'U'), ('డ', '|'), ('వ', 'U'), ('య్య', '|'), ('నీ', 'U'), ('ట', 'U'), ('క్క', '|'), ('రి', '|'), ('మా', 'U'), ('య', '|'), ('లం', 'U'), ('ది', '|'), ('డ', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>దొరసిన కాయముల్ముదిమి తోచినఁజూచి ప్రభుత్వముల్సిరుల్‌
 మెఱపులుగాగజూచి మఱి మేదినిలోఁ దమతోడివారు ముం
@@ -3487,32 +3211,29 @@
 ల్దరుఁగని వారికేమి గతి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('కా', 'U'), ('య', '|'), ('ము', 'U'), ('ల్ము', '|'), ('ది', '|'), ('మి', '|'), ('తో', 'U'), ('చి', '|'), ('న', '|'), ('జూ', 'U'), ('చి', 'U'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('ము', 'U'), ('ల్సి', '|'), ('రుల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('పు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('ఱి', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('లో', 'U'), ('ద', '|'), ('మ', '|'), ('తో', 'U'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('ముం', 'U'), ('ద', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('చూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('తె', '|'), ('గు', '|'), ('నా', 'U'), ('యు', '|'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('మో', 'U'), ('హ', '|'), ('పా', 'U'), ('శ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('కే', 'U'), ('మి', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>సిరిగలనాఁడు మైమఱచి చిక్కిననాఁడు దలంచి పుణ్యముల్‌
 పొరిఁబొరి సేయనైతినని పొక్కినఁగల్గునె గాలిచిచ్చుపైఁ
@@ -3520,32 +3241,29 @@
 త్తరమునఁ ద్రవ్వినంగలదె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('డు', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('చి', 'U'), ('క్కి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ముల్', 'U'), ('పొ', '|'), ('రి', '|'), ('బొ', '|'), ('రి', '|'), ('సే', 'U'), ('య', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('పొ', 'U'), ('క్కి', '|'), ('న', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', '|'), ('గా', 'U'), ('లి', '|'), ('చి', 'U'), ('చ్చు', '|'), ('పై', 'U'), ('గె', '|'), ('ర', '|'), ('లి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('ద', 'U'), ('ప్పి', '|'), ('కొ', '|'), ('ని', '|'), ('కీ', 'U'), ('డ్ప', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('గో', 'U'), ('రి', '|'), ('త', 'U'), ('త్త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('నం', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>జీవనమింకఁ బంకమునఁ జిక్కినమీను చలింపకెంతయున్‌
 దావుననిల్చి జీవనమె దద్దయుఁ గోరువిధంబు చొప్పడం
@@ -3553,32 +3271,29 @@
 తావకభక్తియోగమున దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('వ', '|'), ('న', '|'), ('మిం', 'U'), ('క', '|'), ('బం', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('జి', 'U'), ('క్కి', '|'), ('న', '|'), ('మీ', 'U'), ('ను', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('కెం', 'U'), ('త', '|'), ('యున్', 'U'), ('దా', 'U'), ('వు', '|'), ('న', '|'), ('ని', 'U'), ('ల్చి', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('మె', '|'), ('ద', 'U'), ('ద్ద', '|'), ('యు', '|'), ('గో', 'U'), ('రు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డం', 'U'), ('దా', 'U'), ('వ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('గు', '|'), ('ఱి', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('యా', 'U'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>సరసుని మానసంబు సరసజ్ఞుఁడెఱుంగును ముష్కరాధముం
 డెఱిఁగి గ్రహించువాడె కొలనేక నివాసముఁగాగ దర్దురం
@@ -3586,32 +3301,29 @@
 త్కరము మిళిందమొందు క్రియ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సు', '|'), ('ని', '|'), ('మా', 'U'), ('న', '|'), ('సం', 'U'), ('బు', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ను', '|'), ('ము', 'U'), ('ష్క', '|'), ('రా', 'U'), ('ధ', '|'), ('ముం', 'U'), ('డె', '|'), ('ఱి', '|'), ('గి', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డె', '|'), ('కొ', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ద', '|'), ('ర్దు', '|'), ('రం', 'U'), ('బ', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', 'U'), ('ట్లు', '|'), ('వి', '|'), ('క', '|'), ('చా', 'U'), ('బ్ద', '|'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('ర', '|'), ('సై', 'U'), ('క', '|'), ('సౌ', 'U'), ('ర', '|'), ('భో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('మి', '|'), ('ళిం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దు', 'U'), ('క్రి', '|'), ('య', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>నోఁచిన తల్లితండ్రికిఁ దనూభవుఁడొక్కడె చాలు మేటి చే
 చాఁచనివాఁడు వేఱొకఁడు చాచిన లేదనకిచ్చువాఁడు నో
@@ -3619,32 +3331,29 @@
 దాఁచనివాఁడు భద్రగిరి దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('నో', 'U'), ('చి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('తం', 'U'), ('డ్రి', '|'), ('కి', '|'), ('ద', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డె', '|'), ('చా', 'U'), ('లు', '|'), ('మే', 'U'), ('టి', '|'), ('చే', 'U'), ('చా', 'U'), ('చ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('డు', '|'), ('చా', 'U'), ('చి', '|'), ('న', '|'), ('లే', 'U'), ('ద', '|'), ('న', '|'), ('కి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డు', '|'), ('నో', 'U'), ('రా', 'U'), ('చి', '|'), ('ని', '|'), ('జం', 'U'), ('బ', '|'), ('కా', 'U'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('కా', 'U'), ('డ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('మేన్', 'U'), ('దా', 'U'), ('చ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>"శ్రీయుత జానకీరమణ చిన్మయరూప రమేశరామ నా
 రాయణ పాహిపాహి"యని బ్రస్తుతిఁ జేసితి నా మనంబునం
@@ -3652,32 +3361,29 @@
 దాయి ఫలంబు నాకియవె దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('యు', '|'), ('త', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('చి', 'U'), ('న్మ', '|'), ('య', '|'), ('రూ', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('పా', 'U'), ('హి', '|'), ('పా', 'U'), ('హి', '|'), ('య', '|'), ('ని', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('నా', 'U'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('కి', 'U'), ('ల్బి', '|'), ('ష', 'U'), ('వ్ర', '|'), ('జ', '|'), ('వి', '|'), ('పా', 'U'), ('ట', '|'), ('న', '|'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('త్క', '|'), ('ళా', 'U'), ('దా', 'U'), ('యి', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నా', 'U'), ('కి', '|'), ('య', '|'), ('వె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>ఎంతటి పుణ్యమో శబరి యెంగిలిగొంటివి వింతగాదె నీ
 మంతనమెట్టిదో యుడుతమైని కరాగ్ర నఖాంకురంబులన్‌
@@ -3685,32 +3391,29 @@
 దాంతముగాదె నీ మహిమ దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ఎం', 'U'), ('త', '|'), ('టి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మో', 'U'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('గొం', 'U'), ('టి', '|'), ('వి', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('మె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('యు', '|'), ('డు', '|'), ('త', '|'), ('మై', 'U'), ('ని', '|'), ('క', '|'), ('రా', 'U'), ('గ్ర', '|'), ('న', '|'), ('ఖాం', 'U'), ('కు', '|'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('స', 'U'), ('త్కు', '|'), ('ల', '|'), ('జ', 'U'), ('న్మ', '|'), ('మ', '|'), ('దే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>బొంకనివాఁడె యోగ్యుఁ డరిబృందము లెత్తినచోటఁ జివ్వకుం
 జంకనివాఁడె జోదు రభసంబున నర్థికరంబు సాఁచినం
@@ -3718,32 +3421,29 @@
 తంకమనస్కుఁడెన్నగను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('బొం', 'U'), ('క', '|'), ('ని', '|'), ('వా', 'U'), ('డె', '|'), ('యో', 'U'), ('గ్యు', '|'), ('డ', '|'), ('రి', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('లె', 'U'), ('త్తి', '|'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('జి', 'U'), ('వ్వ', '|'), ('కుం', 'U'), ('జం', 'U'), ('క', '|'), ('ని', '|'), ('వా', 'U'), ('డె', '|'), ('జో', 'U'), ('దు', '|'), ('ర', '|'), ('భ', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('ర్థి', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('సా', 'U'), ('చి', '|'), ('నం', 'U'), ('గొం', 'U'), ('క', '|'), ('ని', '|'), ('వా', 'U'), ('డె', '|'), ('దా', 'U'), ('త', '|'), ('మి', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('డె', '|'), ('పో', 'U'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('డె', 'U'), ('న్న', '|'), ('గ', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>భ్రమరము గీటకంబుఁగొని పాల్పడి ఝాంకరణోపకారియై
 భ్రమరముగా నొనర్చునని పల్కుటఁజేసి భవాది దుఃఖసం
@@ -3751,32 +3451,29 @@
 త్త్వమును ధరించుటేమరుదు దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('గీ', 'U'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('గొ', '|'), ('ని', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('ఝాం', 'U'), ('క', '|'), ('ర', '|'), ('ణో', 'U'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('యై', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('న', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('దుః', 'U'), ('ఖ', '|'), ('సం', 'U'), ('త', '|'), ('మ', '|'), ('స', '|'), ('మె', '|'), ('డ', 'U'), ('ల్చి', '|'), ('భ', 'U'), ('క్తి', '|'), ('స', '|'), ('హి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('జీ', 'U'), ('వు', '|'), ('ని', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('ను', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('టే', 'U'), ('మ', '|'), ('రు', '|'), ('దు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>తరువులు పూచి కాయలగు దత్కుసుమంబులు పూజగా భవ
 చ్చరణము సోఁకి దాసులకు సారములౌ ధనధాన్యరాసులై
@@ -3784,32 +3481,29 @@
 త్తరణ మొనర్చుఁజిత్రమిది దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('వు', '|'), ('లు', '|'), ('పూ', 'U'), ('చి', '|'), ('కా', 'U'), ('య', '|'), ('ల', '|'), ('గు', '|'), ('ద', 'U'), ('త్కు', '|'), ('సు', '|'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('పూ', 'U'), ('జ', '|'), ('గా', 'U'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సో', 'U'), ('కి', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లౌ', 'U'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('రా', 'U'), ('సు', '|'), ('లై', 'U'), ('క', '|'), ('రి', '|'), ('భ', '|'), ('ట', '|'), ('ఘో', 'U'), ('ట', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('లై', 'U'), ('వి', '|'), ('ర', '|'), ('జా', 'U'), ('న', '|'), ('దీ', 'U'), ('స', '|'), ('ము', 'U'), ('త్త', '|'), ('ర', '|'), ('ణ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('జి', 'U'), ('త్ర', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>పట్టితి భట్టరార్యగురు పాదములిమ్మెయి నూర్ధ్వపుండ్రముల్‌
 వెట్టితి మంత్రరాజ మొడబెట్టితి నయ్యమకింకరాళికిం
@@ -3817,32 +3511,29 @@
 దట్టితిఁ బాపపుంజముల దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ట్టి', '|'), ('తి', '|'), ('భ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('ర్య', '|'), ('గు', '|'), ('రు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లి', 'U'), ('మ్మె', '|'), ('యి', '|'), ('నూ', 'U'), ('ర్ధ్వ', '|'), ('పుం', 'U'), ('డ్ర', '|'), ('ముల్', 'U'), ('వె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మొ', '|'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('కిం', 'U'), ('క', '|'), ('రా', 'U'), ('ళి', '|'), ('కిం', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('కం', 'U'), ('జ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ద', '|'), ('లం', 'U'), ('పు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('బో', 'U'), ('ద', 'U'), ('ట్టి', '|'), ('తి', '|'), ('బా', 'U'), ('ప', '|'), ('పుం', 'U'), ('జ', '|'), ('ము', '|'), ('ల', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>అల్లన లింగమంత్రిసుతుఁ డత్రిజ గోత్రజుఁడాదిశాఖ కం
 చెర్లకులోద్భవుండనఁ బ్రసిద్ధుఁడనై భవదంకితంబుగా
@@ -3850,17 +3541,17 @@
 ద్వల్లభ నీకు దాసుఁడను దాశరథీ! కరుణాపయోనిధీ!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>daasarathi</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
-        <is>
-          <t>daasarathi</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
         <is>
           <t>[('అ', 'U'), ('ల్ల', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('డ', 'U'), ('త్రి', '|'), ('జ', '|'), ('గో', 'U'), ('త్ర', '|'), ('జు', '|'), ('డా', 'U'), ('ది', '|'), ('శా', 'U'), ('ఖ', '|'), ('కం', 'U'), ('చె', 'U'), ('ర్ల', '|'), ('కు', '|'), ('లో', 'U'), ('ద్భ', '|'), ('వుం', 'U'), ('డ', '|'), ('న', 'U'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('నై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('క', '|'), ('వుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('తి', '|'), ('గో', 'U'), ('ప', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('డన్', 'U'), ('జ', '|'), ('గ', 'U'), ('ద్వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('నీ', 'U'), ('కు', '|'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>

--- a/dataset/lg/daasarathi.xlsx
+++ b/dataset/lg/daasarathi.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వి', '|'), ('న', '|'), ('తాం', 'U'), ('గు', '|'), ('డ', '|'), ('నై', 'U'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థ', '|'), ('భ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కం', 'U'), ('జ', '|'), ('లె', 'U'), ('త్తి', '|'), ('క', '|'), ('వి', '|'), ('స', 'U'), ('త్త', '|'), ('ము', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('కా', 'U'), ('ర్య', '|'), ('సౌ', 'U'), ('క', 'U'), ('ర్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('ర', '|'), ('చిం', 'U'), ('తు', '|'), ('నే', 'U'), ('డు', '|'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('నన్', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('పు', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ఆ', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వి', '|'), ('న', '|'), ('తాం', 'U'), ('గు', '|'), ('డ', '|'), ('నై', 'U'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థ', '|'), ('భ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ల', '|'), ('కం', 'U'), ('జ', '|'), ('లె', 'U'), ('త్తి', '|'), ('క', '|'), ('వి', '|'), ('స', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('కా', 'U'), ('ర్య', '|'), ('సౌ', 'U'), ('క', 'U'), ('ర్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('ర', '|'), ('చిం', 'U'), ('తు', '|'), ('నే', 'U'), ('డు', '|'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('న', 'U'), ('న్గ్ర', '|'), ('హిం', 'U'), ('పు', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('స', '|'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('గు', '|'), ('బం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('ను', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('బో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('స', '|'), ('న', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('మో', 'U'), ('స', '|'), ('మ', 'U'), ('య్యె', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('న', '|'), ('కు', '|'), ('బూ', 'U'), ('త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('సు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వా', 'U'), ('క్సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖ', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('మ', '|'), ('స', '|'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('గు', '|'), ('బం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('ను', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('ము', 'U'), ('ల్వె', '|'), ('ల', '|'), ('బో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('స', '|'), ('న', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('మో', 'U'), ('స', '|'), ('మ', 'U'), ('య్యె', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('న', '|'), ('కు', '|'), ('బూ', 'U'), ('త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('సు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వా', 'U'), ('క్సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖ', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ర', '|'), ('ఘు', '|'), ('వం', 'U'), ('శ', '|'), ('తో', 'U'), ('య', '|'), ('ధి', '|'), ('కి', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నీ', 'U'), ('ప', '|'), ('వి', '|'), ('త్రో', 'U'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ముల్', 'U'), ('వి', '|'), ('క', '|'), ('సి', '|'), ('తో', 'U'), ('త్ప', '|'), ('ల', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('వృ', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('వా', 'U'), ('క్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('జి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('ర', '|'), ('ఘు', '|'), ('వం', 'U'), ('శ', '|'), ('తో', 'U'), ('య', '|'), ('ధి', '|'), ('కి', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నీ', 'U'), ('ప', '|'), ('వి', '|'), ('త్రో', 'U'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', 'U'), ('ల్వి', '|'), ('క', '|'), ('సి', '|'), ('తో', 'U'), ('త్ప', '|'), ('ల', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('వృ', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('వా', 'U'), ('క్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('జి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('క', '|'), ('ద్రి', '|'), ('జ', '|'), ('కుం', 'U'), ('ది', '|'), ('రు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మై', 'U'), ('క', '|'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('హ', 'U'), ('ల్య', '|'), ('కున్', 'U'), ('ద్రు', '|'), ('ప', '|'), ('ద', '|'), ('క', 'U'), ('న్య', '|'), ('కు', '|'), ('నా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('జి', 'U'), ('హ్వ', '|'), ('పై', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('క', '|'), ('ద్రి', '|'), ('జ', '|'), ('కుం', 'U'), ('ది', '|'), ('రు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మై', 'U'), ('క', '|'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('హ', 'U'), ('ల్య', '|'), ('కు', 'U'), ('న్ద్రు', '|'), ('ప', '|'), ('ద', '|'), ('క', 'U'), ('న్య', '|'), ('కు', '|'), ('నా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('జి', 'U'), ('హ్వ', '|'), ('పై', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('లి', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('హ', '|'), ('లా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('చే', 'U'), ('కు', '|'), ('రు', '|'), ('భం', 'U'), ('గి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('న', '|'), ('ల', '|'), ('మ', '|'), ('ట', '|'), ('జెం', 'U'), ('దు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('సు', '|'), ('రా', 'U'), ('ప', '|'), ('గ', '|'), ('లో', 'U'), ('జ', '|'), ('ల', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ర్మ', '|'), ('లి', '|'), ('న', '|'), ('మ', '|'), ('నో', 'U'), ('వి', '|'), ('కా', 'U'), ('రి', '|'), ('న', '|'), ('గు', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ని', '|'), ('న', 'U'), ('న్నొ', '|'), ('డ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('ప', '|'), ('యిం', 'U'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('హ', '|'), ('లి', '|'), ('కు', '|'), ('న', '|'), ('కు', 'U'), ('న్హ', '|'), ('లా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('చే', 'U'), ('కు', '|'), ('రు', '|'), ('భం', 'U'), ('గి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('న', '|'), ('ల', '|'), ('మ', '|'), ('ట', '|'), ('జెం', 'U'), ('దు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('సు', '|'), ('రా', 'U'), ('ప', '|'), ('గ', '|'), ('లో', 'U'), ('జ', '|'), ('ల', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ర్మ', '|'), ('లి', '|'), ('న', '|'), ('మ', '|'), ('నో', 'U'), ('వి', '|'), ('కా', 'U'), ('రి', '|'), ('న', '|'), ('గు', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ని', '|'), ('న', 'U'), ('న్నొ', '|'), ('డ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('ప', '|'), ('యిం', 'U'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('కొం', 'U'), ('జ', '|'), ('క', '|'), ('త', 'U'), ('ర్క', '|'), ('వా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('గు', 'U'), ('ద్ద', '|'), ('లి', '|'), ('చే', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('క', 'U'), ('న్గొ', '|'), ('న', '|'), ('ని', '|'), ('రా', 'U'), ('మ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('నే', 'U'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('సి', 'U'), ('ద్ధాం', 'U'), ('జ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('హ', 'U'), ('స్త', '|'), ('గ', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('భ', '|'), ('ళీ', 'U'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('నన్', 'U'), ('వ', '|'), ('సిం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('కొం', 'U'), ('జ', '|'), ('క', '|'), ('త', 'U'), ('ర్క', '|'), ('వా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('గు', 'U'), ('ద్ద', '|'), ('లి', '|'), ('చే', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('క', 'U'), ('న్గొ', '|'), ('న', '|'), ('ని', '|'), ('రా', 'U'), ('మ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('నే', 'U'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('సి', 'U'), ('ద్ధాం', 'U'), ('జ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('హ', 'U'), ('స్త', '|'), ('గ', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('భ', '|'), ('ళీ', 'U'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('న', 'U'), ('న్వ', '|'), ('సిం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('ల', 'U'), ('ప్ప', '|'), ('కున్', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('కెం', 'U'), ('జి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('మో', 'U'), ('వి', '|'), ('కిం', 'U'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జుం', 'U'), ('టి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('చుం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('నే', 'U'), ('డ', 'U'), ('క్క', '|'), ('ట', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మా', 'U'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('ల', 'U'), ('ప్ప', '|'), ('కు', 'U'), ('న్మి', '|'), ('గు', '|'), ('ల', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('కెం', 'U'), ('జి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('మో', 'U'), ('వి', '|'), ('కిం', 'U'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జుం', 'U'), ('టి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('చుం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('నే', 'U'), ('డ', 'U'), ('క్క', '|'), ('ట', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మా', 'U'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('సి', '|'), ('రు', '|'), ('లి', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('పీ', 'U'), ('డ', '|'), ('లె', '|'), ('గ', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ట', '|'), ('కున్', 'U'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ర్తి', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('డు', '|'), ('సు', '|'), ('మి', '|'), ('త్ర', '|'), ('సూ', 'U'), ('తి', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ను', '|'), ('ప', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('ద', '|'), ('రి', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('న్ని', '|'), ('న', '|'), ('వ', '|'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('రో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('దా', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('సి', '|'), ('రు', '|'), ('లి', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('పీ', 'U'), ('డ', '|'), ('లె', '|'), ('గ', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ట', '|'), ('కు', 'U'), ('న్హ', '|'), ('ను', '|'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ర్తి', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('డు', '|'), ('సు', '|'), ('మి', '|'), ('త్ర', '|'), ('సూ', 'U'), ('తి', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ను', '|'), ('ప', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('మున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('ద', '|'), ('రి', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('న్ని', '|'), ('న', '|'), ('వ', '|'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('రో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('దా', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('దూ', 'U'), ('ఱి', '|'), ('కు', '|'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('ము', '|'), ('మీ', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('గొ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('మా', 'U'), ('టి', '|'), ('ర', 'U'), ('క్క', '|'), ('సు', '|'), ('ని', '|'), ('యం', 'U'), ('గ', '|'), ('ము', '|'), ('గీ', 'U'), ('టి', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('మా', 'U'), ('టి', '|'), ('పా', 'U'), ('ర్థి', '|'), ('వ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('వె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('దూ', 'U'), ('ఱి', '|'), ('కు', '|'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('ము', '|'), ('మీ', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('గొ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('మా', 'U'), ('టి', '|'), ('ర', 'U'), ('క్క', '|'), ('సు', '|'), ('ని', '|'), ('యం', 'U'), ('గ', '|'), ('ము', '|'), ('గీ', 'U'), ('టి', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('న్ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('మా', 'U'), ('టి', '|'), ('పా', 'U'), ('ర్థి', '|'), ('వ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('వె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('భం', 'U'), ('డ', '|'), ('న', '|'), ('భీ', 'U'), ('ము', '|'), ('డా', 'U'), ('ర్త', '|'), ('జ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('డు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('బా', 'U'), ('ణ', '|'), ('తూ', 'U'), ('ణ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('క', '|'), ('లా', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('భు', '|'), ('జ', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కిన్', 'U'), ('రెం', 'U'), ('డ', '|'), ('వ', '|'), ('సా', 'U'), ('టి', '|'), ('దై', 'U'), ('వ', '|'), ('మి', '|'), ('క', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('గ', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('భే', 'U'), ('రి', '|'), ('కా', 'U'), ('డాం', 'U'), ('డ', '|'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('ని', '|'), ('న', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('జాం', 'U'), ('డ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('మ', 'U'), ('త్త', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('చా', 'U'), ('టె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('భం', 'U'), ('డ', '|'), ('న', '|'), ('భీ', 'U'), ('ము', '|'), ('డా', 'U'), ('ర్త', '|'), ('జ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('డు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('బా', 'U'), ('ణ', '|'), ('తూ', 'U'), ('ణ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('క', '|'), ('లా', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('భు', '|'), ('జ', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కిన్', 'U'), ('రెం', 'U'), ('డ', '|'), ('వ', '|'), ('సా', 'U'), ('టి', '|'), ('దై', 'U'), ('వ', '|'), ('మి', '|'), ('క', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', 'U'), ('న్గ', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('భే', 'U'), ('రి', '|'), ('కా', 'U'), ('డాం', 'U'), ('డ', '|'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('డాం', 'U'), ('డ', '|'), ('ని', '|'), ('న', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('జాం', 'U'), ('డ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('మ', 'U'), ('త్త', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('చా', 'U'), ('టె', '|'), ('ద', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('జ', '|'), ('క', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('లం', 'U'), ('దు', '|'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('సో', 'U'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('నే', 'U'), ('త్ర', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గొం', 'U'), ('డ', '|'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బ', '|'), ('మై', 'U'), ('థి', '|'), ('లీ', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వ', '|'), ('యౌ', 'U'), ('వ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కున్', 'U'), ('మ', '|'), ('ద', '|'), ('దం', 'U'), ('తి', '|'), ('వీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('జ', '|'), ('క', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('లం', 'U'), ('దు', '|'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('సో', 'U'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('నే', 'U'), ('త్ర', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గొం', 'U'), ('డ', '|'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బ', '|'), ('మై', 'U'), ('థి', '|'), ('లీ', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వ', '|'), ('యౌ', 'U'), ('వ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ద', '|'), ('దం', 'U'), ('తి', '|'), ('వీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('తో', 'U'), ('య', '|'), ('మున్', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('బ్బి', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నే', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('గ', '|'), ('రు', '|'), ('చుల్', 'U'), ('గ', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('త', 'U'), ('ఱ్ఱు', '|'), ('ల', '|'), ('తో', 'U'), ('డి', '|'), ('పొ', 'U'), ('త్తి', '|'), ('డ', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('తో', 'U'), ('య', '|'), ('మున్', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('బ్బి', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నే', 'U'), ('జు', 'U'), ('ఱ్ఱె', '|'), ('ద', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('గ', '|'), ('రు', '|'), ('చు', 'U'), ('ల్గ', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('త', 'U'), ('ఱ్ఱు', '|'), ('ల', '|'), ('తో', 'U'), ('డి', '|'), ('పొ', 'U'), ('త్తి', '|'), ('డ', '|'), ('క', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('ఘో', 'U'), ('ర', '|'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('గుం', 'U'), ('డె', '|'), ('ది', '|'), ('గుల్', 'U'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('తా', 'U'), ('కా', 'U'), ('ర', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('వి', '|'), ('నో', 'U'), ('ది', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('భే', 'U'), ('ది', '|'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('మె', 'U'), ('న్ను', '|'), ('కొ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ఘో', 'U'), ('ర', '|'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('గుం', 'U'), ('డె', '|'), ('ది', '|'), ('గు', 'U'), ('ల్ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('తా', 'U'), ('కా', 'U'), ('ర', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('వి', '|'), ('నో', 'U'), ('ది', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('భే', 'U'), ('ది', '|'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నీ', 'U'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('మె', 'U'), ('న్ను', '|'), ('కొ', '|'), ('న', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('పెం', 'U'), ('ప', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('వై', 'U'), ('క', '|'), ('లు', '|'), ('ష', '|'), ('బృం', 'U'), ('ద', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ను', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వై', 'U'), ('మె', '|'), ('యు', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ను', '|'), ('వె', 'U'), ('జ్జు', '|'), ('వై', 'U'), ('కృ', '|'), ('ప', '|'), ('గు', '|'), ('ఱిం', 'U'), ('చి', '|'), ('ప', '|'), ('రం', 'U'), ('బు', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('స', 'U'), ('త్సం', 'U'), ('ప', '|'), ('ద', '|'), ('లీ', 'U'), ('య', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('పెం', 'U'), ('ప', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('వై', 'U'), ('క', '|'), ('లు', '|'), ('ష', '|'), ('బృం', 'U'), ('ద', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ను', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వై', 'U'), ('మె', '|'), ('యు', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('రో', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ను', '|'), ('వె', 'U'), ('జ్జు', '|'), ('వై', 'U'), ('కృ', '|'), ('ప', '|'), ('గు', '|'), ('ఱిం', 'U'), ('చి', '|'), ('ప', '|'), ('రం', 'U'), ('బు', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('స', 'U'), ('త్సం', 'U'), ('ప', '|'), ('ద', '|'), ('లీ', 'U'), ('య', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('కు', 'U'), ('క్షి', '|'), ('న', '|'), ('జాం', 'U'), ('డ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('జం', 'U'), ('తు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('ర', '|'), ('నీ', 'U'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('నా', 'U'), ('ప', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నన్', 'U'), ('జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('క', '|'), ('క', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('కు', 'U'), ('క్షి', '|'), ('న', '|'), ('జాం', 'U'), ('డ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('జం', 'U'), ('తు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('ర', '|'), ('నీ', 'U'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('నా', 'U'), ('ప', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', 'U'), ('న్జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('క', '|'), ('క', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('ళి', '|'), ('వి', '|'), ('న', '|'), ('సై', 'U'), ('ప', '|'), ('క', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('ని', '|'), ('న', '|'), ('ద', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('నీ', 'U'), ('చు', '|'), ('న', '|'), ('కున్', 'U'), ('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', 'U'), ('న్న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యొ', '|'), ('సం', 'U'), ('గె', '|'), ('దో', 'U'), ('స', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('ను', '|'), ('త', '|'), ('మా', 'U'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('మ', '|'), ('య', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('క', '|'), ('థా', 'U'), ('ళి', '|'), ('వి', '|'), ('న', '|'), ('సై', 'U'), ('ప', '|'), ('క', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('ని', '|'), ('న', '|'), ('ద', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్స', '|'), ('లు', '|'), ('పు', '|'), ('నీ', 'U'), ('చు', '|'), ('న', '|'), ('కు', 'U'), ('న్వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', 'U'), ('న్న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యొ', '|'), ('సం', 'U'), ('గె', '|'), ('దో', 'U'), ('స', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('ను', '|'), ('త', '|'), ('మా', 'U'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('మ', '|'), ('య', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ముల్', 'U'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('ప', '|'), ('ర', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('ప', '|'), ('రా', 'U'), ('న్న', '|'), ('మ', 'U'), ('బ్బి', '|'), ('నన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('కా', 'U'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('స', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('సం', 'U'), ('బు', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('కా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('హ', '|'), ('తి', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('ద', '|'), ('రి', '|'), ('జే', 'U'), ('ర్చి', '|'), ('కా', 'U'), ('చె', '|'), ('ద', '|'), ('వొ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', 'U'), ('ల్హ', '|'), ('రిం', 'U'), ('చి', '|'), ('ప', '|'), ('ర', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('ప', '|'), ('రా', 'U'), ('న్న', '|'), ('మ', 'U'), ('బ్బి', '|'), ('నన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('కా', 'U'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('స', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('సం', 'U'), ('బు', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('కా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('హ', '|'), ('తి', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('ద', '|'), ('రి', '|'), ('జే', 'U'), ('ర్చి', '|'), ('కా', 'U'), ('చె', '|'), ('ద', '|'), ('వొ', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('చే', 'U'), ('సి', '|'), ('తి', '|'), ('ఘో', 'U'), ('ర', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('భా', 'U'), ('గ', '|'), ('వ', '|'), ('తా', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('పొం', 'U'), ('దు', '|'), ('నే', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('నే', 'U'), ('ర', '|'), ('ముల్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('చి', 'U'), ('క్కు', '|'), ('ల', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('య', 'U'), ('య్య', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('చే', 'U'), ('సి', '|'), ('తి', '|'), ('ఘో', 'U'), ('ర', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('భా', 'U'), ('గ', '|'), ('వ', '|'), ('తా', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('పొం', 'U'), ('దు', '|'), ('నే', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('నే', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చి', '|'), ('చి', 'U'), ('క్కు', '|'), ('ల', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('య', 'U'), ('య్య', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('త', 'U'), ('ప్పు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('తి', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('వు', '|'), ('మా', 'U'), ('య', 'U'), ('ప్ప', '|'), ('వు', '|'), ('గా', 'U'), ('వు', '|'), ('మం', 'U'), ('టి', '|'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కున్', 'U'), ('ను', '|'), ('దు', '|'), ('రం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('ప్పి', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('ను', '|'), ('లొ', 'U'), ('ప్పి', '|'), ('న', '|'), ('బం', 'U'), ('టు', '|'), ('కు', '|'), ('బం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('త', 'U'), ('ప్పు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('త', 'U'), ('ప్పు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('తి', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('వు', '|'), ('మా', 'U'), ('య', 'U'), ('ప్ప', '|'), ('వు', '|'), ('గా', 'U'), ('వు', '|'), ('మం', 'U'), ('టి', '|'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', 'U'), ('న్ను', '|'), ('దు', '|'), ('రం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('ప్పి', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('ను', '|'), ('లొ', 'U'), ('ప్పి', '|'), ('న', '|'), ('బం', 'U'), ('టు', '|'), ('కు', '|'), ('బం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('త', 'U'), ('ప్పు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('సూ', 'U'), ('రి', '|'), ('జ', '|'), ('నుల్', 'U'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వా', 'U'), ('దు', '|'), ('ల', '|'), ('లు', 'U'), ('బ్ధ', '|'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('వీ', 'U'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('వ్ర', '|'), ('తాం', 'U'), ('గ', '|'), ('న', '|'), ('లు', '|'), ('వి', '|'), ('ప్రు', '|'), ('లు', '|'), ('గో', 'U'), ('వు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('మ', '|'), ('హీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ర', '|'), ('క', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('సూ', 'U'), ('రి', '|'), ('జ', '|'), ('ను', 'U'), ('ల్ద', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వా', 'U'), ('దు', '|'), ('ల', '|'), ('లు', 'U'), ('బ్ధ', '|'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('వీ', 'U'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('వ్ర', '|'), ('తాం', 'U'), ('గ', '|'), ('న', '|'), ('లు', '|'), ('వి', '|'), ('ప్రు', '|'), ('లు', '|'), ('గో', 'U'), ('వు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్మ', '|'), ('హీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ర', '|'), ('క', '|'), ('ట', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('వా', 'U'), ('రి', '|'), ('చ', '|'), ('రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('లో', 'U'), ('జొ', '|'), ('ఱ', '|'), ('బా', 'U'), ('ఱి', '|'), ('క్రో', 'U'), ('ధ', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('న', '|'), ('యా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వీ', 'U'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('రేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('జే', 'U'), ('రి', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('చి', 'U'), ('క్కె', '|'), ('డ', '|'), ('లిం', 'U'), ('చి', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కిన్', 'U'), ('మ', '|'), ('హో', 'U'), ('దా', 'U'), ('ర', '|'), ('త', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('వా', 'U'), ('రి', '|'), ('చ', '|'), ('రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('లో', 'U'), ('జొ', '|'), ('ఱ', '|'), ('బా', 'U'), ('ఱి', '|'), ('క్రో', 'U'), ('ధ', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('న', '|'), ('యా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వీ', 'U'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('రేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('జే', 'U'), ('రి', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('చి', 'U'), ('క్కె', '|'), ('డ', '|'), ('లిం', 'U'), ('చి', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కి', 'U'), ('న్మ', '|'), ('హో', 'U'), ('దా', 'U'), ('ర', '|'), ('త', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('జా', 'U'), ('ప', '|'), ('జు', 'U'), ('ట్టి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('హే', 'U'), ('మ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డ', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('డా', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('దొం', 'U'), ('టి', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('శృం', 'U'), ('గ', '|'), ('ము', '|'), ('నన్', 'U'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('జా', 'U'), ('ప', '|'), ('జు', 'U'), ('ట్టి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('హే', 'U'), ('మ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డ', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('డా', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('దొం', 'U'), ('టి', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('శృం', 'U'), ('గ', '|'), ('ము', '|'), ('న', 'U'), ('న్ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('ట', '|'), ('పె', '|'), ('ట', '|'), ('ను', 'U'), ('క్కు', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('న', '|'), ('ఖాం', 'U'), ('కు', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('ప్ప', '|'), ('తి', '|'), ('లి', '|'), ('భం', 'U'), ('డ', '|'), ('న', '|'), ('వీ', 'U'), ('థి', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('ప', '|'), ('టు', '|'), ('శ', 'U'), ('క్తి', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పున్', 'U'), ('వి', '|'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('సు', '|'), ('రా', 'U'), ('రి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('గృ', '|'), ('ప', '|'), ('జూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('పె', '|'), ('ట', '|'), ('పె', '|'), ('ట', '|'), ('ను', 'U'), ('క్కు', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('న', '|'), ('ఖాం', 'U'), ('కు', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('ప్ప', '|'), ('తి', '|'), ('లి', '|'), ('భం', 'U'), ('డ', '|'), ('న', '|'), ('వీ', 'U'), ('థి', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('ప', '|'), ('టు', '|'), ('శ', 'U'), ('క్తి', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పు', 'U'), ('న్వి', '|'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('సు', '|'), ('రా', 'U'), ('రి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('గృ', '|'), ('ప', '|'), ('జూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('భూ', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('నూ', 'U'), ('ని', '|'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('స్ప', '|'), ('దు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('బ్బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('నొ', '|'), ('క', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('క్రిం', 'U'), ('ద', '|'), ('నొ', 'U'), ('త్తి', '|'), ('మే', 'U'), ('లొ', '|'), ('ద', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('బు', '|'), ('రు', '|'), ('హూ', 'U'), ('తు', '|'), ('ని', '|'), ('కి', 'U'), ('య్య', '|'), ('వ', '|'), ('టుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('చి', 'U'), ('త్స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ప', '|'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('భూ', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('ల', 'U'), ('న్వె', '|'), ('స', '|'), ('నూ', 'U'), ('ని', '|'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('స్ప', '|'), ('దు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('బ్బ', '|'), ('లీం', 'U'), ('ద్రు', '|'), ('నొ', '|'), ('క', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('క్రిం', 'U'), ('ద', '|'), ('నొ', 'U'), ('త్తి', '|'), ('మే', 'U'), ('లొ', '|'), ('ద', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('బు', '|'), ('రు', '|'), ('హూ', 'U'), ('తు', '|'), ('ని', '|'), ('కి', 'U'), ('య్య', '|'), ('వ', '|'), ('టుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('చి', 'U'), ('త్స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('రు', '|'), ('వ', '|'), ('ది', '|'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('శు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్క', '|'), ('ళే', 'U'), ('బ', '|'), ('ర', '|'), ('రు', '|'), ('ధి', '|'), ('ర', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('జే', 'U'), ('సి', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('సొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('ఇ', '|'), ('రు', '|'), ('వ', '|'), ('ది', '|'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('శు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్క', '|'), ('ళే', 'U'), ('బ', '|'), ('ర', '|'), ('రు', '|'), ('ధి', '|'), ('ర', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('జే', 'U'), ('సి', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('కి', 'U'), ('న్ము', '|'), ('ద', '|'), ('ము', '|'), ('సొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('ట', '|'), ('కం', 'U'), ('దు', '|'), ('ని', '|'), ('మి', '|'), ('ధూ', 'U'), ('ర్జ', '|'), ('టి', '|'), ('విల్', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('సీ', 'U'), ('త', '|'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('ణ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('తం', 'U'), ('డ్రి', '|'), ('ప', '|'), ('ను', '|'), ('పన్', 'U'), ('ఘ', '|'), ('న', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('టు', '|'), ('చం', 'U'), ('డ', '|'), ('కాం', 'U'), ('డ', '|'), ('కు', '|'), ('లి', '|'), ('శా', 'U'), ('హ', '|'), ('తి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('ట', '|'), ('కం', 'U'), ('దు', '|'), ('ని', '|'), ('మి', '|'), ('ధూ', 'U'), ('ర్జ', '|'), ('టి', '|'), ('వి', 'U'), ('ల్దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('సీ', 'U'), ('త', '|'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('ణ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('తం', 'U'), ('డ్రి', '|'), ('ప', '|'), ('ను', '|'), ('ప', 'U'), ('న్ఘ', '|'), ('న', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('టు', '|'), ('చం', 'U'), ('డ', '|'), ('కాం', 'U'), ('డ', '|'), ('కు', '|'), ('లి', '|'), ('శా', 'U'), ('హ', '|'), ('తి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('యా', 'U'), ('ద', '|'), ('వా', 'U'), ('న్వ', '|'), ('య', '|'), ('సు', '|'), ('ధా', 'U'), ('బ్ధి', '|'), ('సు', '|'), ('ధా', 'U'), ('ని', '|'), ('ధి', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('గా', 'U'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('కు', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('రో', 'U'), ('హి', '|'), ('ణీ', 'U'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డ', '|'), ('నం', 'U'), ('గ', '|'), ('బా', 'U'), ('హు', '|'), ('బ', '|'), ('ల', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ము', '|'), ('నన్', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('త', '|'), ('న', '|'), ('రి', '|'), ('న', '|'), ('వే', 'U'), ('ల్ప', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('అ', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('యా', 'U'), ('ద', '|'), ('వా', 'U'), ('న్వ', '|'), ('య', '|'), ('సు', '|'), ('ధా', 'U'), ('బ్ధి', '|'), ('సు', '|'), ('ధా', 'U'), ('ని', '|'), ('ధి', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('గా', 'U'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('కు', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('రో', 'U'), ('హి', '|'), ('ణీ', 'U'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డ', '|'), ('నం', 'U'), ('గ', '|'), ('బా', 'U'), ('హు', '|'), ('బ', '|'), ('ల', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ము', '|'), ('న', 'U'), ('న్బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('త', '|'), ('న', '|'), ('రి', '|'), ('న', '|'), ('వే', 'U'), ('ల్ప', '|'), ('వీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద్రి', '|'), ('పు', '|'), ('ర', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('లన్', 'U'), ('వ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('బు', 'U'), ('ద్ధ', '|'), ('రూ', 'U'), ('ప', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వు', '|'), ('త్రి', '|'), ('పు', '|'), ('రా', 'U'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('ద', '|'), ('హిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('ఖో', 'U'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద్రి', '|'), ('పు', '|'), ('ర', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('ల', 'U'), ('న్వ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('బు', 'U'), ('ద్ధ', '|'), ('రూ', 'U'), ('ప', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తీ', 'U'), ('వు', '|'), ('త్రి', '|'), ('పు', '|'), ('రా', 'U'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('ద', '|'), ('హిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('ఖో', 'U'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('క', '|'), ('ర', '|'), ('దు', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('కు', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ష', '|'), ('లీ', 'U'), ('ల', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('క', '|'), ('రా', 'U'), ('సి', '|'), ('బూ', 'U'), ('ని', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('సం', 'U'), ('క', '|'), ('ర', '|'), ('దు', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('కు', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ష', '|'), ('లీ', 'U'), ('ల', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('నె', 'U'), ('క్కి', '|'), ('క', '|'), ('రా', 'U'), ('సి', '|'), ('బూ', 'U'), ('ని', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('కి', 'U'), ('న్ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వె', '|'), ('క', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('హ', '|'), ('పో', 'U'), ('హ', '|'), ('ణ', '|'), ('లు', '|'), ('మ', 'U'), ('ర్వ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('క', '|'), ('ఫా', 'U'), ('ది', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('నం', 'U'), ('టి', '|'), ('మే', 'U'), ('ని', '|'), ('బి', '|'), ('గి', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('మో', 'U'), ('క్ష', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', 'U'), ('త్త్వ', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('ల్త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('వి', '|'), ('రో', 'U'), ('ధ', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('హ', '|'), ('పో', 'U'), ('హ', '|'), ('ణ', '|'), ('లు', '|'), ('మ', 'U'), ('ర్వ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('క', '|'), ('ఫా', 'U'), ('ది', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('నం', 'U'), ('టి', '|'), ('మే', 'U'), ('ని', '|'), ('బి', '|'), ('గి', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('మో', 'U'), ('క్ష', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', 'U'), ('త్త్వ', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('ల్త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్వి', '|'), ('రో', 'U'), ('ధ', '|'), ('మి', '|'), ('ది', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('దు', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('తా', 'U'), ('ను', '|'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('య', '|'), ('దుః', 'U'), ('ఖ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('హే', 'U'), ('తి', '|'), ('చే', 'U'), ('దె', '|'), ('గి', '|'), ('వ', '|'), ('కా', 'U'), ('వ', '|'), ('క', '|'), ('లై', 'U'), ('చ', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('ద', '|'), ('రి', '|'), ('కొ', '|'), ('ని', '|'), ('మం', 'U'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖ', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('నన్', 'U'), ('శ', '|'), ('ల', '|'), ('భా', 'U'), ('ది', '|'), ('కీ', 'U'), ('ట', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('దు', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('తా', 'U'), ('ను', '|'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('య', '|'), ('దుః', 'U'), ('ఖ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('హే', 'U'), ('తి', '|'), ('చే', 'U'), ('దె', '|'), ('గి', '|'), ('వ', '|'), ('కా', 'U'), ('వ', '|'), ('క', '|'), ('లై', 'U'), ('చ', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('ద', '|'), ('రి', '|'), ('కొ', '|'), ('ని', '|'), ('మం', 'U'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖ', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('న', 'U'), ('న్శ', '|'), ('ల', '|'), ('భా', 'U'), ('ది', '|'), ('కీ', 'U'), ('ట', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('దె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లి', '|'), ('డ', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('నె', '|'), ('చూ', 'U'), ('డ', '|'), ('జి', 'U'), ('హ్వ', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', '|'), ('న', 'U'), ('ర్ప', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థ', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('స', '|'), ('మీ', 'U'), ('య', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('బె', 'U'), ('ట్టు', '|'), ('పూ', 'U'), ('స', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('గొ', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('చే', 'U'), ('య', '|'), ('వే', 'U'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('క', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లి', '|'), ('డ', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('నె', '|'), ('చూ', 'U'), ('డ', '|'), ('జి', 'U'), ('హ్వ', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', '|'), ('న', 'U'), ('ర్ప', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థ', '|'), ('ల', 'U'), ('న్వి', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('స', '|'), ('మీ', 'U'), ('య', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('బె', 'U'), ('ట్టు', '|'), ('పూ', 'U'), ('స', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('గొ', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('సా', 'U'), ('ధ', '|'), ('నో', 'U'), ('త్క', '|'), ('ర', '|'), ('మి', '|'), ('ది', '|'), ('చే', 'U'), ('య', '|'), ('వే', 'U'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('నొ', 'U'), ('క్క', '|'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళ', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('ఖే', 'U'), ('చ', '|'), ('ర', '|'), ('గ', '|'), ('రు', '|'), ('డో', 'U'), ('ర', '|'), ('గ', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లో', 'U'), ('వె', '|'), ('లు', '|'), ('గన్', 'U'), ('స', '|'), ('దా', 'U'), ('భ', '|'), ('వత్', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', '|'), ('మ', '|'), ('ఱ', '|'), ('చే', 'U'), ('తి', '|'), ('ధా', 'U'), ('త్రి', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('చి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('నొ', 'U'), ('క్క', '|'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళ', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('ఖే', 'U'), ('చ', '|'), ('ర', '|'), ('గ', '|'), ('రు', '|'), ('డో', 'U'), ('ర', '|'), ('గ', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లో', 'U'), ('వె', '|'), ('లు', '|'), ('గ', 'U'), ('న్స', '|'), ('దా', 'U'), ('భ', '|'), ('వత్', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కె', 'U'), ('ల్ల', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', '|'), ('మ', '|'), ('ఱ', '|'), ('చే', 'U'), ('తి', '|'), ('ధా', 'U'), ('త్రి', '|'), ('గ', '|'), ('ద', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('స', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('బో', 'U'), ('ధ', '|'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('తా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', '|'), ('గ్రుం', 'U'), ('కు', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('త', '|'), ('ను', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('మా', 'U'), ('న', '|'), ('వుం', 'U'), ('డీ', 'U'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('క', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('నిం', 'U'), ('గి', '|'), ('న', '|'), ('దు', 'U'), ('ర్వి', '|'), ('కా', 'U'), ('ర', '|'), ('హృ', 'U'), ('త్తా', 'U'), ('మ', '|'), ('స', '|'), ('పం', 'U'), ('క', '|'), ('ముల్', 'U'), ('వి', '|'), ('డు', '|'), ('నె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('స', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('బో', 'U'), ('ధ', '|'), ('క', '|'), ('థా', 'U'), ('మృ', '|'), ('తా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', '|'), ('గ్రుం', 'U'), ('కు', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('త', '|'), ('ను', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('మా', 'U'), ('న', '|'), ('వుం', 'U'), ('డీ', 'U'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('క', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('నిం', 'U'), ('గి', '|'), ('న', '|'), ('దు', 'U'), ('ర్వి', '|'), ('కా', 'U'), ('ర', '|'), ('హృ', 'U'), ('త్తా', 'U'), ('మ', '|'), ('స', '|'), ('పం', 'U'), ('క', '|'), ('ము', 'U'), ('ల్వి', '|'), ('డు', '|'), ('నె', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('వా', 'U'), ('రి', '|'), ('జ', '|'), ('ప', '|'), ('త్ర', '|'), ('మం', 'U'), ('ది', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('య', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('వం', 'U'), ('ట', '|'), ('ని', '|'), ('కు', 'U'), ('మ్మ', '|'), ('ర', '|'), ('పు', 'U'), ('ర్వు', '|'), ('రీ', 'U'), ('తి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మొం', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('వా', 'U'), ('రి', '|'), ('జ', '|'), ('ప', '|'), ('త్ర', '|'), ('మం', 'U'), ('ది', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('య', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('వం', 'U'), ('ట', '|'), ('ని', '|'), ('కు', 'U'), ('మ్మ', '|'), ('ర', '|'), ('పు', 'U'), ('ర్వు', '|'), ('రీ', 'U'), ('తి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్మె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('గు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మొం', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('ల్ల', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('డ', '|'), ('త్రి', '|'), ('జ', '|'), ('గో', 'U'), ('త్ర', '|'), ('జు', '|'), ('డా', 'U'), ('ది', '|'), ('శా', 'U'), ('ఖ', '|'), ('కం', 'U'), ('చె', 'U'), ('ర్ల', '|'), ('కు', '|'), ('లో', 'U'), ('ద్భ', '|'), ('వుం', 'U'), ('డ', '|'), ('న', '|'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('నై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('క', '|'), ('వుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('తి', '|'), ('గో', 'U'), ('ప', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('డన్', 'U'), ('జ', '|'), ('గ', 'U'), ('ద్వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('నీ', 'U'), ('కు', '|'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
+          <t>[('అ', 'U'), ('ల్ల', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('డ', '|'), ('త్రి', '|'), ('జ', '|'), ('గో', 'U'), ('త్ర', '|'), ('జు', '|'), ('డా', 'U'), ('ది', '|'), ('శా', 'U'), ('ఖ', '|'), ('కం', 'U'), ('చె', 'U'), ('ర్ల', '|'), ('కు', '|'), ('లో', 'U'), ('ద్భ', '|'), ('వుం', 'U'), ('డ', '|'), ('న', '|'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('నై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('క', '|'), ('వు', 'U'), ('ల్ను', '|'), ('తిం', 'U'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('తి', '|'), ('గో', 'U'), ('ప', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('డ', 'U'), ('న్జ', '|'), ('గ', 'U'), ('ద్వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('నీ', 'U'), ('కు', '|'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ధీ', 'U')]</t>
         </is>
       </c>
     </row>
